--- a/raw_data/20200818_saline/20200818_Sensor2_Test_62.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_62.xlsx
@@ -1,583 +1,999 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44414A3-CA4D-4D9E-9DA1-FB8C248372D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>55271.663548</v>
+        <v>55271.663547999997</v>
       </c>
       <c r="B2" s="1">
-        <v>15.353240</v>
+        <v>15.35324</v>
       </c>
       <c r="C2" s="1">
-        <v>1247.840000</v>
+        <v>1247.8399999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-303.381000</v>
+        <v>-303.38099999999997</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>55282.035887</v>
+        <v>55282.035886999998</v>
       </c>
       <c r="G2" s="1">
         <v>15.356121</v>
       </c>
       <c r="H2" s="1">
-        <v>1271.780000</v>
+        <v>1271.78</v>
       </c>
       <c r="I2" s="1">
-        <v>-262.341000</v>
+        <v>-262.34100000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>55292.127490</v>
+        <v>55292.127489999999</v>
       </c>
       <c r="L2" s="1">
         <v>15.358924</v>
       </c>
       <c r="M2" s="1">
-        <v>1306.730000</v>
+        <v>1306.73</v>
       </c>
       <c r="N2" s="1">
-        <v>-201.486000</v>
+        <v>-201.48599999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>55302.616922</v>
+        <v>55302.616922000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>15.361838</v>
+        <v>15.361838000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1318.490000</v>
+        <v>1318.49</v>
       </c>
       <c r="S2" s="1">
-        <v>-183.775000</v>
+        <v>-183.77500000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>55313.195589</v>
+        <v>55313.195589000003</v>
       </c>
       <c r="V2" s="1">
         <v>15.364777</v>
       </c>
       <c r="W2" s="1">
-        <v>1331.490000</v>
+        <v>1331.49</v>
       </c>
       <c r="X2" s="1">
-        <v>-170.662000</v>
+        <v>-170.66200000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>55323.949318</v>
+        <v>55323.949317999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>15.367764</v>
+        <v>15.367763999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1349.000000</v>
+        <v>1349</v>
       </c>
       <c r="AC2" s="1">
-        <v>-169.150000</v>
+        <v>-169.15</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>55334.516586</v>
+        <v>55334.516585999998</v>
       </c>
       <c r="AF2" s="1">
         <v>15.370699</v>
       </c>
       <c r="AG2" s="1">
-        <v>1362.110000</v>
+        <v>1362.11</v>
       </c>
       <c r="AH2" s="1">
-        <v>-179.150000</v>
+        <v>-179.15</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>55344.692507</v>
@@ -586,73 +1002,73 @@
         <v>15.373526</v>
       </c>
       <c r="AL2" s="1">
-        <v>1383.250000</v>
+        <v>1383.25</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.362000</v>
+        <v>-209.36199999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>55354.946303</v>
+        <v>55354.946302999997</v>
       </c>
       <c r="AP2" s="1">
         <v>15.376374</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1405.510000</v>
+        <v>1405.51</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.213000</v>
+        <v>-253.21299999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>55365.562176</v>
+        <v>55365.562175999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>15.379323</v>
+        <v>15.379322999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1430.670000</v>
+        <v>1430.67</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.895000</v>
+        <v>-312.89499999999998</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>55376.346925</v>
+        <v>55376.346924999998</v>
       </c>
       <c r="AZ2" s="1">
-        <v>15.382319</v>
+        <v>15.382319000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1450.510000</v>
+        <v>1450.51</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.651000</v>
+        <v>-364.65100000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>55386.938756</v>
+        <v>55386.938756000003</v>
       </c>
       <c r="BE2" s="1">
         <v>15.385261</v>
       </c>
       <c r="BF2" s="1">
-        <v>1537.690000</v>
+        <v>1537.69</v>
       </c>
       <c r="BG2" s="1">
-        <v>-610.391000</v>
+        <v>-610.39099999999996</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>55397.593815</v>
@@ -661,210 +1077,210 @@
         <v>15.388221</v>
       </c>
       <c r="BK2" s="1">
-        <v>1694.060000</v>
+        <v>1694.06</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1049.440000</v>
+        <v>-1049.44</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>55409.013241</v>
+        <v>55409.013241000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>15.391393</v>
+        <v>15.391393000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1991.160000</v>
+        <v>1991.16</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1807.290000</v>
+        <v>-1807.29</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>55419.848840</v>
+        <v>55419.848839999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>15.394402</v>
+        <v>15.394401999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>2378.250000</v>
+        <v>2378.25</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2679.620000</v>
+        <v>-2679.62</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>55431.061867</v>
+        <v>55431.061866999997</v>
       </c>
       <c r="BY2" s="1">
-        <v>15.397517</v>
+        <v>15.397517000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2865.710000</v>
+        <v>2865.71</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3626.980000</v>
+        <v>-3626.98</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>55441.959995</v>
+        <v>55441.959994999997</v>
       </c>
       <c r="CD2" s="1">
         <v>15.400544</v>
       </c>
       <c r="CE2" s="1">
-        <v>4291.830000</v>
+        <v>4291.83</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5896.180000</v>
+        <v>-5896.18</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>55272.047490</v>
+        <v>55272.047489999997</v>
       </c>
       <c r="B3" s="1">
-        <v>15.353347</v>
+        <v>15.353346999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1247.610000</v>
+        <v>1247.6099999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-303.472000</v>
+        <v>-303.47199999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>55282.367710</v>
+        <v>55282.367709999999</v>
       </c>
       <c r="G3" s="1">
         <v>15.356213</v>
       </c>
       <c r="H3" s="1">
-        <v>1272.280000</v>
+        <v>1272.28</v>
       </c>
       <c r="I3" s="1">
-        <v>-262.587000</v>
+        <v>-262.58699999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>55292.502960</v>
+        <v>55292.502959999998</v>
       </c>
       <c r="L3" s="1">
         <v>15.359029</v>
       </c>
       <c r="M3" s="1">
-        <v>1306.750000</v>
+        <v>1306.75</v>
       </c>
       <c r="N3" s="1">
-        <v>-201.231000</v>
+        <v>-201.23099999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>55302.983426</v>
+        <v>55302.983425999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>15.361940</v>
+        <v>15.361940000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1318.430000</v>
+        <v>1318.43</v>
       </c>
       <c r="S3" s="1">
-        <v>-183.667000</v>
+        <v>-183.667</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>55313.871144</v>
+        <v>55313.871143999997</v>
       </c>
       <c r="V3" s="1">
-        <v>15.364964</v>
+        <v>15.364964000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1331.300000</v>
+        <v>1331.3</v>
       </c>
       <c r="X3" s="1">
-        <v>-170.663000</v>
+        <v>-170.66300000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>55324.368035</v>
       </c>
       <c r="AA3" s="1">
-        <v>15.367880</v>
+        <v>15.36788</v>
       </c>
       <c r="AB3" s="1">
-        <v>1348.980000</v>
+        <v>1348.98</v>
       </c>
       <c r="AC3" s="1">
-        <v>-169.131000</v>
+        <v>-169.131</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>55334.923337</v>
       </c>
       <c r="AF3" s="1">
-        <v>15.370812</v>
+        <v>15.370812000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1361.920000</v>
+        <v>1361.92</v>
       </c>
       <c r="AH3" s="1">
-        <v>-179.291000</v>
+        <v>-179.291</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>55345.046155</v>
+        <v>55345.046155000004</v>
       </c>
       <c r="AK3" s="1">
         <v>15.373624</v>
       </c>
       <c r="AL3" s="1">
-        <v>1383.220000</v>
+        <v>1383.22</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.399000</v>
+        <v>-209.399</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>55355.308913</v>
+        <v>55355.308913000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>15.376475</v>
+        <v>15.376474999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1405.490000</v>
+        <v>1405.49</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.217000</v>
+        <v>-253.21700000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>55365.945087</v>
@@ -873,73 +1289,73 @@
         <v>15.379429</v>
       </c>
       <c r="AV3" s="1">
-        <v>1430.660000</v>
+        <v>1430.66</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.910000</v>
+        <v>-312.91000000000003</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>55376.708273</v>
+        <v>55376.708272999997</v>
       </c>
       <c r="AZ3" s="1">
-        <v>15.382419</v>
+        <v>15.382419000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1450.510000</v>
+        <v>1450.51</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.690000</v>
+        <v>-364.69</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>55387.355395</v>
+        <v>55387.355394999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>15.385376</v>
+        <v>15.385376000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1537.650000</v>
+        <v>1537.65</v>
       </c>
       <c r="BG3" s="1">
-        <v>-610.387000</v>
+        <v>-610.38699999999994</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>55398.054101</v>
+        <v>55398.054101000002</v>
       </c>
       <c r="BJ3" s="1">
-        <v>15.388348</v>
+        <v>15.388348000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1694.010000</v>
+        <v>1694.01</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1049.350000</v>
+        <v>-1049.3499999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>55409.133735</v>
+        <v>55409.133735000003</v>
       </c>
       <c r="BO3" s="1">
-        <v>15.391426</v>
+        <v>15.391425999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1990.930000</v>
+        <v>1990.93</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1807.460000</v>
+        <v>-1807.46</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>55420.349768</v>
@@ -948,46 +1364,46 @@
         <v>15.394542</v>
       </c>
       <c r="BU3" s="1">
-        <v>2378.150000</v>
+        <v>2378.15</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2679.320000</v>
+        <v>-2679.32</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>55431.522152</v>
+        <v>55431.522151999998</v>
       </c>
       <c r="BY3" s="1">
-        <v>15.397645</v>
+        <v>15.397645000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2865.860000</v>
+        <v>2865.86</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3627.080000</v>
+        <v>-3627.08</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>55442.549738</v>
+        <v>55442.549738000002</v>
       </c>
       <c r="CD3" s="1">
         <v>15.400708</v>
       </c>
       <c r="CE3" s="1">
-        <v>4275.680000</v>
+        <v>4275.68</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5899.110000</v>
+        <v>-5899.11</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>55272.389336</v>
       </c>
@@ -995,238 +1411,238 @@
         <v>15.353441</v>
       </c>
       <c r="C4" s="1">
-        <v>1247.600000</v>
+        <v>1247.5999999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-303.564000</v>
+        <v>-303.56400000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>55282.716893</v>
+        <v>55282.716892999997</v>
       </c>
       <c r="G4" s="1">
-        <v>15.356310</v>
+        <v>15.356310000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1271.490000</v>
+        <v>1271.49</v>
       </c>
       <c r="I4" s="1">
-        <v>-263.086000</v>
+        <v>-263.08600000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>55293.154223</v>
+        <v>55293.154222999998</v>
       </c>
       <c r="L4" s="1">
-        <v>15.359210</v>
+        <v>15.359209999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1306.910000</v>
+        <v>1306.9100000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-201.347000</v>
+        <v>-201.34700000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>55303.649058</v>
+        <v>55303.649058000003</v>
       </c>
       <c r="Q4" s="1">
-        <v>15.362125</v>
+        <v>15.362125000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1318.460000</v>
+        <v>1318.46</v>
       </c>
       <c r="S4" s="1">
-        <v>-183.656000</v>
+        <v>-183.65600000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>55314.249060</v>
+        <v>55314.249060000002</v>
       </c>
       <c r="V4" s="1">
         <v>15.365069</v>
       </c>
       <c r="W4" s="1">
-        <v>1331.230000</v>
+        <v>1331.23</v>
       </c>
       <c r="X4" s="1">
-        <v>-170.667000</v>
+        <v>-170.667</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>55324.717970</v>
+        <v>55324.717969999998</v>
       </c>
       <c r="AA4" s="1">
         <v>15.367977</v>
       </c>
       <c r="AB4" s="1">
-        <v>1349.020000</v>
+        <v>1349.02</v>
       </c>
       <c r="AC4" s="1">
-        <v>-169.042000</v>
+        <v>-169.042</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>55335.269016</v>
+        <v>55335.269015999998</v>
       </c>
       <c r="AF4" s="1">
         <v>15.370908</v>
       </c>
       <c r="AG4" s="1">
-        <v>1362.280000</v>
+        <v>1362.28</v>
       </c>
       <c r="AH4" s="1">
-        <v>-179.199000</v>
+        <v>-179.19900000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>55345.395834</v>
+        <v>55345.395834000003</v>
       </c>
       <c r="AK4" s="1">
         <v>15.373721</v>
       </c>
       <c r="AL4" s="1">
-        <v>1383.220000</v>
+        <v>1383.22</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.357000</v>
+        <v>-209.357</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>55355.670493</v>
+        <v>55355.670492999998</v>
       </c>
       <c r="AP4" s="1">
-        <v>15.376575</v>
+        <v>15.376575000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1405.500000</v>
+        <v>1405.5</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.217000</v>
+        <v>-253.21700000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>55366.366228</v>
+        <v>55366.366227999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>15.379546</v>
+        <v>15.379545999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1430.680000</v>
+        <v>1430.68</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.938000</v>
+        <v>-312.93799999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>55377.198816</v>
+        <v>55377.198815999996</v>
       </c>
       <c r="AZ4" s="1">
         <v>15.382555</v>
       </c>
       <c r="BA4" s="1">
-        <v>1450.510000</v>
+        <v>1450.51</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.690000</v>
+        <v>-364.69</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>55387.687250</v>
+        <v>55387.687250000003</v>
       </c>
       <c r="BE4" s="1">
-        <v>15.385469</v>
+        <v>15.385469000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1537.630000</v>
+        <v>1537.63</v>
       </c>
       <c r="BG4" s="1">
-        <v>-610.410000</v>
+        <v>-610.41</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>55398.452884</v>
+        <v>55398.452883999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>15.388459</v>
+        <v>15.388458999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1694.010000</v>
+        <v>1694.01</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1049.430000</v>
+        <v>-1049.43</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>55409.542934</v>
+        <v>55409.542933999997</v>
       </c>
       <c r="BO4" s="1">
-        <v>15.391540</v>
+        <v>15.391540000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1990.690000</v>
+        <v>1990.69</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1807.640000</v>
+        <v>-1807.64</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>55420.784794</v>
+        <v>55420.784793999999</v>
       </c>
       <c r="BT4" s="1">
         <v>15.394662</v>
       </c>
       <c r="BU4" s="1">
-        <v>2378.340000</v>
+        <v>2378.34</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2678.740000</v>
+        <v>-2678.74</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>55431.973016</v>
+        <v>55431.973016000004</v>
       </c>
       <c r="BY4" s="1">
-        <v>15.397770</v>
+        <v>15.39777</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2866.140000</v>
+        <v>2866.14</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3626.340000</v>
+        <v>-3626.34</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>55443.083929</v>
@@ -1235,467 +1651,467 @@
         <v>15.400857</v>
       </c>
       <c r="CE4" s="1">
-        <v>4289.030000</v>
+        <v>4289.03</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5898.530000</v>
+        <v>-5898.53</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>55273.049370</v>
+        <v>55273.049370000001</v>
       </c>
       <c r="B5" s="1">
-        <v>15.353625</v>
+        <v>15.353624999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1247.320000</v>
+        <v>1247.32</v>
       </c>
       <c r="D5" s="1">
-        <v>-303.393000</v>
+        <v>-303.39299999999997</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>55283.379550</v>
+        <v>55283.379549999998</v>
       </c>
       <c r="G5" s="1">
         <v>15.356494</v>
       </c>
       <c r="H5" s="1">
-        <v>1272.610000</v>
+        <v>1272.6099999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-261.667000</v>
+        <v>-261.66699999999997</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>55293.537616</v>
+        <v>55293.537616000001</v>
       </c>
       <c r="L5" s="1">
         <v>15.359316</v>
       </c>
       <c r="M5" s="1">
-        <v>1306.910000</v>
+        <v>1306.9100000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-201.471000</v>
+        <v>-201.471</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>55304.027505</v>
+        <v>55304.027504999998</v>
       </c>
       <c r="Q5" s="1">
-        <v>15.362230</v>
+        <v>15.36223</v>
       </c>
       <c r="R5" s="1">
-        <v>1318.470000</v>
+        <v>1318.47</v>
       </c>
       <c r="S5" s="1">
-        <v>-183.692000</v>
+        <v>-183.69200000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>55314.591827</v>
+        <v>55314.591826999997</v>
       </c>
       <c r="V5" s="1">
         <v>15.365164</v>
       </c>
       <c r="W5" s="1">
-        <v>1331.680000</v>
+        <v>1331.68</v>
       </c>
       <c r="X5" s="1">
-        <v>-170.498000</v>
+        <v>-170.49799999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>55325.064358</v>
+        <v>55325.064358000003</v>
       </c>
       <c r="AA5" s="1">
-        <v>15.368073</v>
+        <v>15.368073000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1348.990000</v>
+        <v>1348.99</v>
       </c>
       <c r="AC5" s="1">
-        <v>-169.174000</v>
+        <v>-169.17400000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>55335.613737</v>
       </c>
       <c r="AF5" s="1">
-        <v>15.371004</v>
+        <v>15.371003999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1362.080000</v>
+        <v>1362.08</v>
       </c>
       <c r="AH5" s="1">
-        <v>-179.191000</v>
+        <v>-179.191</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>55345.820411</v>
+        <v>55345.820411000001</v>
       </c>
       <c r="AK5" s="1">
         <v>15.373839</v>
       </c>
       <c r="AL5" s="1">
-        <v>1383.230000</v>
+        <v>1383.23</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.350000</v>
+        <v>-209.35</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>55356.097517</v>
+        <v>55356.097517000002</v>
       </c>
       <c r="AP5" s="1">
-        <v>15.376694</v>
+        <v>15.376694000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1405.490000</v>
+        <v>1405.49</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.202000</v>
+        <v>-253.202</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>55366.673742</v>
+        <v>55366.673741999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>15.379632</v>
+        <v>15.379632000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1430.650000</v>
+        <v>1430.65</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.923000</v>
+        <v>-312.923</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>55377.426480</v>
+        <v>55377.426480000002</v>
       </c>
       <c r="AZ5" s="1">
-        <v>15.382618</v>
+        <v>15.382618000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1450.530000</v>
+        <v>1450.53</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.653000</v>
+        <v>-364.65300000000002</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>55388.049828</v>
+        <v>55388.049828000003</v>
       </c>
       <c r="BE5" s="1">
         <v>15.385569</v>
       </c>
       <c r="BF5" s="1">
-        <v>1537.650000</v>
+        <v>1537.65</v>
       </c>
       <c r="BG5" s="1">
-        <v>-610.365000</v>
+        <v>-610.36500000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>55398.828180</v>
+        <v>55398.828179999997</v>
       </c>
       <c r="BJ5" s="1">
         <v>15.388563</v>
       </c>
       <c r="BK5" s="1">
-        <v>1694.100000</v>
+        <v>1694.1</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1049.260000</v>
+        <v>-1049.26</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>55409.937752</v>
+        <v>55409.937751999998</v>
       </c>
       <c r="BO5" s="1">
-        <v>15.391649</v>
+        <v>15.391648999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1990.770000</v>
+        <v>1990.77</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1807.650000</v>
+        <v>-1807.65</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>55421.204907</v>
+        <v>55421.204906999999</v>
       </c>
       <c r="BT5" s="1">
         <v>15.394779</v>
       </c>
       <c r="BU5" s="1">
-        <v>2377.910000</v>
+        <v>2377.91</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2678.130000</v>
+        <v>-2678.13</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>55432.391151</v>
+        <v>55432.391151000003</v>
       </c>
       <c r="BY5" s="1">
         <v>15.397886</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2866.020000</v>
+        <v>2866.02</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3626.210000</v>
+        <v>-3626.21</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>55443.601256</v>
+        <v>55443.601256000002</v>
       </c>
       <c r="CD5" s="1">
-        <v>15.401000</v>
+        <v>15.401</v>
       </c>
       <c r="CE5" s="1">
-        <v>4287.280000</v>
+        <v>4287.28</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5885.620000</v>
+        <v>-5885.62</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>55273.413435</v>
+        <v>55273.413435000002</v>
       </c>
       <c r="B6" s="1">
         <v>15.353726</v>
       </c>
       <c r="C6" s="1">
-        <v>1247.660000</v>
+        <v>1247.6600000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-303.302000</v>
+        <v>-303.30200000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>55283.753565</v>
+        <v>55283.753564999999</v>
       </c>
       <c r="G6" s="1">
         <v>15.356598</v>
       </c>
       <c r="H6" s="1">
-        <v>1272.060000</v>
+        <v>1272.06</v>
       </c>
       <c r="I6" s="1">
-        <v>-261.729000</v>
+        <v>-261.72899999999998</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>55293.881838</v>
+        <v>55293.881838000001</v>
       </c>
       <c r="L6" s="1">
-        <v>15.359412</v>
+        <v>15.359412000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1306.970000</v>
+        <v>1306.97</v>
       </c>
       <c r="N6" s="1">
-        <v>-201.350000</v>
+        <v>-201.35</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>55304.376720</v>
+        <v>55304.37672</v>
       </c>
       <c r="Q6" s="1">
-        <v>15.362327</v>
+        <v>15.362327000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1318.510000</v>
+        <v>1318.51</v>
       </c>
       <c r="S6" s="1">
-        <v>-183.719000</v>
+        <v>-183.71899999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>55314.935536</v>
+        <v>55314.935535999997</v>
       </c>
       <c r="V6" s="1">
-        <v>15.365260</v>
+        <v>15.365259999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1331.570000</v>
+        <v>1331.57</v>
       </c>
       <c r="X6" s="1">
-        <v>-170.615000</v>
+        <v>-170.61500000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>55325.493396</v>
+        <v>55325.493395999998</v>
       </c>
       <c r="AA6" s="1">
         <v>15.368193</v>
       </c>
       <c r="AB6" s="1">
-        <v>1349.100000</v>
+        <v>1349.1</v>
       </c>
       <c r="AC6" s="1">
-        <v>-169.150000</v>
+        <v>-169.15</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>55336.037351</v>
+        <v>55336.037350999999</v>
       </c>
       <c r="AF6" s="1">
         <v>15.371121</v>
       </c>
       <c r="AG6" s="1">
-        <v>1362.010000</v>
+        <v>1362.01</v>
       </c>
       <c r="AH6" s="1">
-        <v>-179.153000</v>
+        <v>-179.15299999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>55346.093209</v>
+        <v>55346.093208999999</v>
       </c>
       <c r="AK6" s="1">
         <v>15.373915</v>
       </c>
       <c r="AL6" s="1">
-        <v>1383.220000</v>
+        <v>1383.22</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.354000</v>
+        <v>-209.35400000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>55356.390653</v>
+        <v>55356.390653000002</v>
       </c>
       <c r="AP6" s="1">
         <v>15.376775</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1405.450000</v>
+        <v>1405.45</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.181000</v>
+        <v>-253.18100000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>55367.039263</v>
+        <v>55367.039262999999</v>
       </c>
       <c r="AU6" s="1">
         <v>15.379733</v>
       </c>
       <c r="AV6" s="1">
-        <v>1430.710000</v>
+        <v>1430.71</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.896000</v>
+        <v>-312.89600000000002</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>55377.784593</v>
+        <v>55377.784592999997</v>
       </c>
       <c r="AZ6" s="1">
-        <v>15.382718</v>
+        <v>15.382718000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1450.490000</v>
+        <v>1450.49</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.626000</v>
+        <v>-364.62599999999998</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>55388.408930</v>
+        <v>55388.408929999998</v>
       </c>
       <c r="BE6" s="1">
         <v>15.385669</v>
       </c>
       <c r="BF6" s="1">
-        <v>1537.610000</v>
+        <v>1537.61</v>
       </c>
       <c r="BG6" s="1">
-        <v>-610.387000</v>
+        <v>-610.38699999999994</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>55399.579304</v>
+        <v>55399.579303999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>15.388772</v>
+        <v>15.388771999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1693.990000</v>
+        <v>1693.99</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1049.390000</v>
+        <v>-1049.3900000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>55410.362857</v>
@@ -1704,90 +2120,90 @@
         <v>15.391767</v>
       </c>
       <c r="BP6" s="1">
-        <v>1990.870000</v>
+        <v>1990.87</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1807.600000</v>
+        <v>-1807.6</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>55421.613574</v>
+        <v>55421.613574000003</v>
       </c>
       <c r="BT6" s="1">
         <v>15.394893</v>
       </c>
       <c r="BU6" s="1">
-        <v>2378.250000</v>
+        <v>2378.25</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2677.710000</v>
+        <v>-2677.71</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>55432.815255</v>
+        <v>55432.815255000001</v>
       </c>
       <c r="BY6" s="1">
         <v>15.398004</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2865.310000</v>
+        <v>2865.31</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3626.010000</v>
+        <v>-3626.01</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>55444.121032</v>
+        <v>55444.121032000003</v>
       </c>
       <c r="CD6" s="1">
         <v>15.401145</v>
       </c>
       <c r="CE6" s="1">
-        <v>4273.230000</v>
+        <v>4273.2299999999996</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5888.500000</v>
+        <v>-5888.5</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>55273.755178</v>
+        <v>55273.755177999999</v>
       </c>
       <c r="B7" s="1">
         <v>15.353821</v>
       </c>
       <c r="C7" s="1">
-        <v>1247.900000</v>
+        <v>1247.9000000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-303.214000</v>
+        <v>-303.214</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>55284.100267</v>
+        <v>55284.100267000002</v>
       </c>
       <c r="G7" s="1">
         <v>15.356695</v>
       </c>
       <c r="H7" s="1">
-        <v>1271.760000</v>
+        <v>1271.76</v>
       </c>
       <c r="I7" s="1">
-        <v>-261.849000</v>
+        <v>-261.84899999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>55294.227583</v>
@@ -1796,43 +2212,43 @@
         <v>15.359508</v>
       </c>
       <c r="M7" s="1">
-        <v>1306.820000</v>
+        <v>1306.82</v>
       </c>
       <c r="N7" s="1">
-        <v>-201.264000</v>
+        <v>-201.26400000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>55304.749681</v>
+        <v>55304.749681000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>15.362430</v>
+        <v>15.36243</v>
       </c>
       <c r="R7" s="1">
-        <v>1318.490000</v>
+        <v>1318.49</v>
       </c>
       <c r="S7" s="1">
-        <v>-183.791000</v>
+        <v>-183.791</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>55315.353651</v>
+        <v>55315.353650999998</v>
       </c>
       <c r="V7" s="1">
-        <v>15.365376</v>
+        <v>15.365375999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1331.370000</v>
+        <v>1331.37</v>
       </c>
       <c r="X7" s="1">
-        <v>-170.817000</v>
+        <v>-170.81700000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>55325.765174</v>
@@ -1841,133 +2257,133 @@
         <v>15.368268</v>
       </c>
       <c r="AB7" s="1">
-        <v>1348.780000</v>
+        <v>1348.78</v>
       </c>
       <c r="AC7" s="1">
-        <v>-169.193000</v>
+        <v>-169.19300000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>55336.304198</v>
+        <v>55336.304197999998</v>
       </c>
       <c r="AF7" s="1">
-        <v>15.371196</v>
+        <v>15.371195999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1362.250000</v>
+        <v>1362.25</v>
       </c>
       <c r="AH7" s="1">
-        <v>-179.075000</v>
+        <v>-179.07499999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>55346.442393</v>
+        <v>55346.442392999998</v>
       </c>
       <c r="AK7" s="1">
         <v>15.374012</v>
       </c>
       <c r="AL7" s="1">
-        <v>1383.220000</v>
+        <v>1383.22</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.345000</v>
+        <v>-209.345</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>55356.751739</v>
+        <v>55356.751738999999</v>
       </c>
       <c r="AP7" s="1">
         <v>15.376875</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1405.470000</v>
+        <v>1405.47</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.204000</v>
+        <v>-253.20400000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>55367.404349</v>
+        <v>55367.404348999997</v>
       </c>
       <c r="AU7" s="1">
         <v>15.379835</v>
       </c>
       <c r="AV7" s="1">
-        <v>1430.700000</v>
+        <v>1430.7</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.905000</v>
+        <v>-312.90499999999997</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>55378.507264</v>
       </c>
       <c r="AZ7" s="1">
-        <v>15.382919</v>
+        <v>15.382918999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1450.500000</v>
+        <v>1450.5</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.647000</v>
+        <v>-364.64699999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>55389.130578</v>
+        <v>55389.130577999997</v>
       </c>
       <c r="BE7" s="1">
-        <v>15.385870</v>
+        <v>15.385870000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1537.620000</v>
+        <v>1537.62</v>
       </c>
       <c r="BG7" s="1">
-        <v>-610.396000</v>
+        <v>-610.39599999999996</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>55399.955266</v>
+        <v>55399.955265999997</v>
       </c>
       <c r="BJ7" s="1">
         <v>15.388876</v>
       </c>
       <c r="BK7" s="1">
-        <v>1694.040000</v>
+        <v>1694.04</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1049.400000</v>
+        <v>-1049.4000000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>55410.757672</v>
       </c>
       <c r="BO7" s="1">
-        <v>15.391877</v>
+        <v>15.391876999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1990.870000</v>
+        <v>1990.87</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1807.450000</v>
+        <v>-1807.45</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>55422.050549</v>
@@ -1976,90 +2392,90 @@
         <v>15.395014</v>
       </c>
       <c r="BU7" s="1">
-        <v>2378.540000</v>
+        <v>2378.54</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2677.540000</v>
+        <v>-2677.54</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>55433.548311</v>
+        <v>55433.548310999999</v>
       </c>
       <c r="BY7" s="1">
         <v>15.398208</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2865.450000</v>
+        <v>2865.45</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3627.190000</v>
+        <v>-3627.19</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>55444.951863</v>
+        <v>55444.951863000002</v>
       </c>
       <c r="CD7" s="1">
-        <v>15.401376</v>
+        <v>15.401376000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>4277.360000</v>
+        <v>4277.3599999999997</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5903.830000</v>
+        <v>-5903.83</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>55274.097418</v>
+        <v>55274.097417999998</v>
       </c>
       <c r="B8" s="1">
         <v>15.353916</v>
       </c>
       <c r="C8" s="1">
-        <v>1247.540000</v>
+        <v>1247.54</v>
       </c>
       <c r="D8" s="1">
-        <v>-303.198000</v>
+        <v>-303.19799999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>55284.444955</v>
+        <v>55284.444954999999</v>
       </c>
       <c r="G8" s="1">
-        <v>15.356790</v>
+        <v>15.35679</v>
       </c>
       <c r="H8" s="1">
-        <v>1272.000000</v>
+        <v>1272</v>
       </c>
       <c r="I8" s="1">
-        <v>-262.125000</v>
+        <v>-262.125</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>55294.642207</v>
+        <v>55294.642206999997</v>
       </c>
       <c r="L8" s="1">
-        <v>15.359623</v>
+        <v>15.359622999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1306.920000</v>
+        <v>1306.92</v>
       </c>
       <c r="N8" s="1">
-        <v>-201.475000</v>
+        <v>-201.47499999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>55305.226336</v>
@@ -2068,405 +2484,405 @@
         <v>15.362563</v>
       </c>
       <c r="R8" s="1">
-        <v>1318.400000</v>
+        <v>1318.4</v>
       </c>
       <c r="S8" s="1">
-        <v>-183.708000</v>
+        <v>-183.708</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>55315.648273</v>
+        <v>55315.648272999999</v>
       </c>
       <c r="V8" s="1">
         <v>15.365458</v>
       </c>
       <c r="W8" s="1">
-        <v>1331.620000</v>
+        <v>1331.62</v>
       </c>
       <c r="X8" s="1">
-        <v>-170.874000</v>
+        <v>-170.874</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>55326.112372</v>
+        <v>55326.112372000003</v>
       </c>
       <c r="AA8" s="1">
-        <v>15.368365</v>
+        <v>15.368365000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1348.960000</v>
+        <v>1348.96</v>
       </c>
       <c r="AC8" s="1">
-        <v>-169.182000</v>
+        <v>-169.18199999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>55336.647894</v>
+        <v>55336.647894000002</v>
       </c>
       <c r="AF8" s="1">
-        <v>15.371291</v>
+        <v>15.371290999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1362.120000</v>
+        <v>1362.12</v>
       </c>
       <c r="AH8" s="1">
-        <v>-179.085000</v>
+        <v>-179.08500000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>55346.788137</v>
+        <v>55346.788137000003</v>
       </c>
       <c r="AK8" s="1">
         <v>15.374108</v>
       </c>
       <c r="AL8" s="1">
-        <v>1383.230000</v>
+        <v>1383.23</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.351000</v>
+        <v>-209.351</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>55357.109883</v>
+        <v>55357.109882999997</v>
       </c>
       <c r="AP8" s="1">
         <v>15.376975</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1405.470000</v>
+        <v>1405.47</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.205000</v>
+        <v>-253.20500000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>55368.131480</v>
+        <v>55368.131479999996</v>
       </c>
       <c r="AU8" s="1">
         <v>15.380037</v>
       </c>
       <c r="AV8" s="1">
-        <v>1430.650000</v>
+        <v>1430.65</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.904000</v>
+        <v>-312.904</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>55378.881750</v>
+        <v>55378.88175</v>
       </c>
       <c r="AZ8" s="1">
         <v>15.383023</v>
       </c>
       <c r="BA8" s="1">
-        <v>1450.510000</v>
+        <v>1450.51</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.645000</v>
+        <v>-364.64499999999998</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>55389.517492</v>
+        <v>55389.517491999999</v>
       </c>
       <c r="BE8" s="1">
         <v>15.385977</v>
       </c>
       <c r="BF8" s="1">
-        <v>1537.640000</v>
+        <v>1537.64</v>
       </c>
       <c r="BG8" s="1">
-        <v>-610.383000</v>
+        <v>-610.38300000000004</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>55400.331729</v>
+        <v>55400.331728999998</v>
       </c>
       <c r="BJ8" s="1">
-        <v>15.388981</v>
+        <v>15.388980999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1694.050000</v>
+        <v>1694.05</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1049.430000</v>
+        <v>-1049.43</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>55411.178741</v>
+        <v>55411.178741000003</v>
       </c>
       <c r="BO8" s="1">
         <v>15.391994</v>
       </c>
       <c r="BP8" s="1">
-        <v>1990.520000</v>
+        <v>1990.52</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1807.450000</v>
+        <v>-1807.45</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>55422.777716</v>
+        <v>55422.777715999997</v>
       </c>
       <c r="BT8" s="1">
         <v>15.395216</v>
       </c>
       <c r="BU8" s="1">
-        <v>2379.000000</v>
+        <v>2379</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2677.230000</v>
+        <v>-2677.23</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>55433.658919</v>
+        <v>55433.658919000001</v>
       </c>
       <c r="BY8" s="1">
         <v>15.398239</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2865.910000</v>
+        <v>2865.91</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3626.460000</v>
+        <v>-3626.46</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>55445.157204</v>
+        <v>55445.157204000003</v>
       </c>
       <c r="CD8" s="1">
-        <v>15.401433</v>
+        <v>15.401433000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>4293.470000</v>
+        <v>4293.47</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5898.430000</v>
+        <v>-5898.43</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>55274.511614</v>
+        <v>55274.511614000003</v>
       </c>
       <c r="B9" s="1">
-        <v>15.354031</v>
+        <v>15.354031000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1247.830000</v>
+        <v>1247.83</v>
       </c>
       <c r="D9" s="1">
-        <v>-303.546000</v>
+        <v>-303.54599999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>55284.867547</v>
+        <v>55284.867547000002</v>
       </c>
       <c r="G9" s="1">
-        <v>15.356908</v>
+        <v>15.356908000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1271.810000</v>
+        <v>1271.81</v>
       </c>
       <c r="I9" s="1">
-        <v>-262.221000</v>
+        <v>-262.221</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>55294.923469</v>
+        <v>55294.923469000001</v>
       </c>
       <c r="L9" s="1">
-        <v>15.359701</v>
+        <v>15.359700999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1306.890000</v>
+        <v>1306.8900000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-201.428000</v>
+        <v>-201.428</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>55305.454991</v>
+        <v>55305.454990999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>15.362626</v>
+        <v>15.362626000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1318.420000</v>
+        <v>1318.42</v>
       </c>
       <c r="S9" s="1">
-        <v>-183.681000</v>
+        <v>-183.68100000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>55315.992033</v>
+        <v>55315.992033000002</v>
       </c>
       <c r="V9" s="1">
         <v>15.365553</v>
       </c>
       <c r="W9" s="1">
-        <v>1331.420000</v>
+        <v>1331.42</v>
       </c>
       <c r="X9" s="1">
-        <v>-170.549000</v>
+        <v>-170.54900000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>55326.459608</v>
+        <v>55326.459607999997</v>
       </c>
       <c r="AA9" s="1">
         <v>15.368461</v>
       </c>
       <c r="AB9" s="1">
-        <v>1349.000000</v>
+        <v>1349</v>
       </c>
       <c r="AC9" s="1">
-        <v>-169.193000</v>
+        <v>-169.19300000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>55336.990135</v>
       </c>
       <c r="AF9" s="1">
-        <v>15.371386</v>
+        <v>15.371385999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1362.040000</v>
+        <v>1362.04</v>
       </c>
       <c r="AH9" s="1">
-        <v>-179.169000</v>
+        <v>-179.16900000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>55347.487463</v>
+        <v>55347.487462999998</v>
       </c>
       <c r="AK9" s="1">
         <v>15.374302</v>
       </c>
       <c r="AL9" s="1">
-        <v>1383.270000</v>
+        <v>1383.27</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.355000</v>
+        <v>-209.35499999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>55357.832559</v>
+        <v>55357.832559000002</v>
       </c>
       <c r="AP9" s="1">
         <v>15.377176</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1405.420000</v>
+        <v>1405.42</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.170000</v>
+        <v>-253.17</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>55368.523324</v>
+        <v>55368.523324000002</v>
       </c>
       <c r="AU9" s="1">
-        <v>15.380145</v>
+        <v>15.380145000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1430.680000</v>
+        <v>1430.68</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.899000</v>
+        <v>-312.899</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>55379.263192</v>
+        <v>55379.263191999999</v>
       </c>
       <c r="AZ9" s="1">
         <v>15.383129</v>
       </c>
       <c r="BA9" s="1">
-        <v>1450.490000</v>
+        <v>1450.49</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.638000</v>
+        <v>-364.63799999999998</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>55389.902884</v>
+        <v>55389.902884000003</v>
       </c>
       <c r="BE9" s="1">
         <v>15.386084</v>
       </c>
       <c r="BF9" s="1">
-        <v>1537.630000</v>
+        <v>1537.63</v>
       </c>
       <c r="BG9" s="1">
-        <v>-610.349000</v>
+        <v>-610.34900000000005</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>55401.014721</v>
       </c>
       <c r="BJ9" s="1">
-        <v>15.389171</v>
+        <v>15.389170999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1694.000000</v>
+        <v>1694</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1049.290000</v>
+        <v>-1049.29</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>55411.879128</v>
@@ -2475,225 +2891,225 @@
         <v>15.392189</v>
       </c>
       <c r="BP9" s="1">
-        <v>1990.650000</v>
+        <v>1990.65</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1807.580000</v>
+        <v>-1807.58</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>55422.923508</v>
       </c>
       <c r="BT9" s="1">
-        <v>15.395257</v>
+        <v>15.395257000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>2379.310000</v>
+        <v>2379.31</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2676.820000</v>
+        <v>-2676.82</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>55434.092421</v>
+        <v>55434.092421000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>15.398359</v>
+        <v>15.398358999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2865.800000</v>
+        <v>2865.8</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3625.960000</v>
+        <v>-3625.96</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>55445.671031</v>
+        <v>55445.671030999998</v>
       </c>
       <c r="CD9" s="1">
-        <v>15.401575</v>
+        <v>15.401574999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>4292.480000</v>
+        <v>4292.4799999999996</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5898.850000</v>
+        <v>-5898.85</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>55274.786888</v>
+        <v>55274.786888000002</v>
       </c>
       <c r="B10" s="1">
-        <v>15.354107</v>
+        <v>15.354107000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1247.840000</v>
+        <v>1247.8399999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-303.418000</v>
+        <v>-303.41800000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>55285.142826</v>
+        <v>55285.142826000003</v>
       </c>
       <c r="G10" s="1">
-        <v>15.356984</v>
+        <v>15.356984000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1272.810000</v>
+        <v>1272.81</v>
       </c>
       <c r="I10" s="1">
-        <v>-261.430000</v>
+        <v>-261.43</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>55295.267662</v>
+        <v>55295.267661999998</v>
       </c>
       <c r="L10" s="1">
         <v>15.359797</v>
       </c>
       <c r="M10" s="1">
-        <v>1306.560000</v>
+        <v>1306.56</v>
       </c>
       <c r="N10" s="1">
-        <v>-201.171000</v>
+        <v>-201.17099999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>55305.804671</v>
+        <v>55305.804670999998</v>
       </c>
       <c r="Q10" s="1">
         <v>15.362724</v>
       </c>
       <c r="R10" s="1">
-        <v>1318.490000</v>
+        <v>1318.49</v>
       </c>
       <c r="S10" s="1">
-        <v>-183.650000</v>
+        <v>-183.65</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>55316.333745</v>
+        <v>55316.333745000004</v>
       </c>
       <c r="V10" s="1">
         <v>15.365648</v>
       </c>
       <c r="W10" s="1">
-        <v>1331.360000</v>
+        <v>1331.36</v>
       </c>
       <c r="X10" s="1">
-        <v>-170.742000</v>
+        <v>-170.74199999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>55327.158466</v>
+        <v>55327.158466000001</v>
       </c>
       <c r="AA10" s="1">
         <v>15.368655</v>
       </c>
       <c r="AB10" s="1">
-        <v>1349.040000</v>
+        <v>1349.04</v>
       </c>
       <c r="AC10" s="1">
-        <v>-169.083000</v>
+        <v>-169.083</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>55337.677124</v>
+        <v>55337.677124000002</v>
       </c>
       <c r="AF10" s="1">
         <v>15.371577</v>
       </c>
       <c r="AG10" s="1">
-        <v>1362.190000</v>
+        <v>1362.19</v>
       </c>
       <c r="AH10" s="1">
-        <v>-179.148000</v>
+        <v>-179.148</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>55347.836151</v>
+        <v>55347.836151000003</v>
       </c>
       <c r="AK10" s="1">
         <v>15.374399</v>
       </c>
       <c r="AL10" s="1">
-        <v>1383.220000</v>
+        <v>1383.22</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.351000</v>
+        <v>-209.351</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>55358.220889</v>
+        <v>55358.220888999997</v>
       </c>
       <c r="AP10" s="1">
         <v>15.377284</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1405.470000</v>
+        <v>1405.47</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.216000</v>
+        <v>-253.21600000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>55368.889341</v>
+        <v>55368.889341000002</v>
       </c>
       <c r="AU10" s="1">
-        <v>15.380247</v>
+        <v>15.380247000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1430.660000</v>
+        <v>1430.66</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.890000</v>
+        <v>-312.89</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>55379.925822</v>
+        <v>55379.925821999997</v>
       </c>
       <c r="AZ10" s="1">
-        <v>15.383313</v>
+        <v>15.383312999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1450.500000</v>
+        <v>1450.5</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.627000</v>
+        <v>-364.62700000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>55390.579392</v>
@@ -2702,13 +3118,13 @@
         <v>15.386272</v>
       </c>
       <c r="BF10" s="1">
-        <v>1537.630000</v>
+        <v>1537.63</v>
       </c>
       <c r="BG10" s="1">
-        <v>-610.353000</v>
+        <v>-610.35299999999995</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>55401.456692</v>
@@ -2717,43 +3133,43 @@
         <v>15.389294</v>
       </c>
       <c r="BK10" s="1">
-        <v>1693.980000</v>
+        <v>1693.98</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1049.290000</v>
+        <v>-1049.29</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>55412.012547</v>
+        <v>55412.012546999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>15.392226</v>
+        <v>15.392226000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1990.610000</v>
+        <v>1990.61</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1807.530000</v>
+        <v>-1807.53</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>55423.335683</v>
+        <v>55423.335682999998</v>
       </c>
       <c r="BT10" s="1">
-        <v>15.395371</v>
+        <v>15.395371000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>2379.690000</v>
+        <v>2379.69</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2676.620000</v>
+        <v>-2676.62</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>55434.515045</v>
@@ -2762,709 +3178,709 @@
         <v>15.398476</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2865.140000</v>
+        <v>2865.14</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3625.860000</v>
+        <v>-3625.86</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>55446.225061</v>
+        <v>55446.225060999997</v>
       </c>
       <c r="CD10" s="1">
         <v>15.401729</v>
       </c>
       <c r="CE10" s="1">
-        <v>4283.750000</v>
+        <v>4283.75</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5900.760000</v>
+        <v>-5900.76</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>55275.128600</v>
+        <v>55275.128599999996</v>
       </c>
       <c r="B11" s="1">
-        <v>15.354202</v>
+        <v>15.354202000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1247.490000</v>
+        <v>1247.49</v>
       </c>
       <c r="D11" s="1">
-        <v>-303.448000</v>
+        <v>-303.44799999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>55285.485066</v>
+        <v>55285.485066000001</v>
       </c>
       <c r="G11" s="1">
-        <v>15.357079</v>
+        <v>15.357079000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1271.730000</v>
+        <v>1271.73</v>
       </c>
       <c r="I11" s="1">
-        <v>-261.979000</v>
+        <v>-261.97899999999998</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>55295.613870</v>
+        <v>55295.613870000001</v>
       </c>
       <c r="L11" s="1">
         <v>15.359893</v>
       </c>
       <c r="M11" s="1">
-        <v>1306.820000</v>
+        <v>1306.82</v>
       </c>
       <c r="N11" s="1">
-        <v>-201.227000</v>
+        <v>-201.227</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>55306.501589</v>
       </c>
       <c r="Q11" s="1">
-        <v>15.362917</v>
+        <v>15.362916999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1318.500000</v>
+        <v>1318.5</v>
       </c>
       <c r="S11" s="1">
-        <v>-183.706000</v>
+        <v>-183.70599999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>55317.021201</v>
+        <v>55317.021201000003</v>
       </c>
       <c r="V11" s="1">
-        <v>15.365839</v>
+        <v>15.365838999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1331.610000</v>
+        <v>1331.61</v>
       </c>
       <c r="X11" s="1">
-        <v>-170.527000</v>
+        <v>-170.52699999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>55327.506130</v>
+        <v>55327.506130000002</v>
       </c>
       <c r="AA11" s="1">
-        <v>15.368752</v>
+        <v>15.368752000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1349.060000</v>
+        <v>1349.06</v>
       </c>
       <c r="AC11" s="1">
-        <v>-169.032000</v>
+        <v>-169.03200000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>55338.022340</v>
+        <v>55338.022340000003</v>
       </c>
       <c r="AF11" s="1">
-        <v>15.371673</v>
+        <v>15.371672999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1362.020000</v>
+        <v>1362.02</v>
       </c>
       <c r="AH11" s="1">
-        <v>-179.195000</v>
+        <v>-179.19499999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>55348.185367</v>
+        <v>55348.185366999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>15.374496</v>
+        <v>15.374496000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1383.230000</v>
+        <v>1383.23</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.326000</v>
+        <v>-209.32599999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>55358.581978</v>
+        <v>55358.581978000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>15.377384</v>
+        <v>15.377383999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1405.440000</v>
+        <v>1405.44</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.170000</v>
+        <v>-253.17</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>55369.567867</v>
+        <v>55369.567866999998</v>
       </c>
       <c r="AU11" s="1">
         <v>15.380436</v>
       </c>
       <c r="AV11" s="1">
-        <v>1430.650000</v>
+        <v>1430.65</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.903000</v>
+        <v>-312.90300000000002</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>55380.345438</v>
+        <v>55380.345437999997</v>
       </c>
       <c r="AZ11" s="1">
         <v>15.383429</v>
       </c>
       <c r="BA11" s="1">
-        <v>1450.490000</v>
+        <v>1450.49</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.634000</v>
+        <v>-364.63400000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>55390.987103</v>
+        <v>55390.987102999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>15.386385</v>
+        <v>15.386385000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1537.620000</v>
+        <v>1537.62</v>
       </c>
       <c r="BG11" s="1">
-        <v>-610.389000</v>
+        <v>-610.38900000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>55401.830640</v>
+        <v>55401.83064</v>
       </c>
       <c r="BJ11" s="1">
-        <v>15.389397</v>
+        <v>15.389397000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1694.030000</v>
+        <v>1694.03</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1049.340000</v>
+        <v>-1049.3399999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>55412.424691</v>
       </c>
       <c r="BO11" s="1">
-        <v>15.392340</v>
+        <v>15.392340000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1990.580000</v>
+        <v>1990.58</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1807.510000</v>
+        <v>-1807.51</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>55423.759282</v>
+        <v>55423.759281999999</v>
       </c>
       <c r="BT11" s="1">
         <v>15.395489</v>
       </c>
       <c r="BU11" s="1">
-        <v>2380.020000</v>
+        <v>2380.02</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2676.420000</v>
+        <v>-2676.42</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>55434.943060</v>
+        <v>55434.943059999998</v>
       </c>
       <c r="BY11" s="1">
         <v>15.398595</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2865.230000</v>
+        <v>2865.23</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3626.510000</v>
+        <v>-3626.51</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>55446.757268</v>
+        <v>55446.757268000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>15.401877</v>
+        <v>15.401877000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>4291.380000</v>
+        <v>4291.38</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5889.220000</v>
+        <v>-5889.22</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>55275.470345</v>
+        <v>55275.470345000002</v>
       </c>
       <c r="B12" s="1">
-        <v>15.354297</v>
+        <v>15.354297000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1247.450000</v>
+        <v>1247.45</v>
       </c>
       <c r="D12" s="1">
-        <v>-303.228000</v>
+        <v>-303.22800000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>55285.831273</v>
+        <v>55285.831273000003</v>
       </c>
       <c r="G12" s="1">
         <v>15.357175</v>
       </c>
       <c r="H12" s="1">
-        <v>1272.420000</v>
+        <v>1272.42</v>
       </c>
       <c r="I12" s="1">
-        <v>-262.409000</v>
+        <v>-262.40899999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>55296.304838</v>
+        <v>55296.304837999996</v>
       </c>
       <c r="L12" s="1">
         <v>15.360085</v>
       </c>
       <c r="M12" s="1">
-        <v>1307.030000</v>
+        <v>1307.03</v>
       </c>
       <c r="N12" s="1">
-        <v>-201.628000</v>
+        <v>-201.62799999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>55306.848749</v>
+        <v>55306.848748999997</v>
       </c>
       <c r="Q12" s="1">
         <v>15.363014</v>
       </c>
       <c r="R12" s="1">
-        <v>1318.490000</v>
+        <v>1318.49</v>
       </c>
       <c r="S12" s="1">
-        <v>-183.786000</v>
+        <v>-183.786</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>55317.363440</v>
+        <v>55317.363440000001</v>
       </c>
       <c r="V12" s="1">
-        <v>15.365934</v>
+        <v>15.365933999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>1331.560000</v>
+        <v>1331.56</v>
       </c>
       <c r="X12" s="1">
-        <v>-170.611000</v>
+        <v>-170.61099999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>55327.852833</v>
+        <v>55327.852832999997</v>
       </c>
       <c r="AA12" s="1">
         <v>15.368848</v>
       </c>
       <c r="AB12" s="1">
-        <v>1348.850000</v>
+        <v>1348.85</v>
       </c>
       <c r="AC12" s="1">
-        <v>-169.050000</v>
+        <v>-169.05</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>55338.365541</v>
+        <v>55338.365540999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>15.371768</v>
+        <v>15.371767999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1362.030000</v>
+        <v>1362.03</v>
       </c>
       <c r="AH12" s="1">
-        <v>-179.186000</v>
+        <v>-179.18600000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>55348.837079</v>
+        <v>55348.837078999997</v>
       </c>
       <c r="AK12" s="1">
         <v>15.374677</v>
       </c>
       <c r="AL12" s="1">
-        <v>1383.180000</v>
+        <v>1383.18</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.340000</v>
+        <v>-209.34</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>55359.305144</v>
+        <v>55359.305143999998</v>
       </c>
       <c r="AP12" s="1">
         <v>15.377585</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1405.460000</v>
+        <v>1405.46</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.208000</v>
+        <v>-253.208</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>55370.016747</v>
+        <v>55370.016747000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>15.380560</v>
+        <v>15.380559999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1430.630000</v>
+        <v>1430.63</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.892000</v>
+        <v>-312.892</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>55380.721901</v>
+        <v>55380.721900999997</v>
       </c>
       <c r="AZ12" s="1">
-        <v>15.383534</v>
+        <v>15.383533999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1450.510000</v>
+        <v>1450.51</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.652000</v>
+        <v>-364.65199999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>55391.367039</v>
+        <v>55391.367038999997</v>
       </c>
       <c r="BE12" s="1">
-        <v>15.386491</v>
+        <v>15.386490999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1537.620000</v>
+        <v>1537.62</v>
       </c>
       <c r="BG12" s="1">
-        <v>-610.343000</v>
+        <v>-610.34299999999996</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>55402.209618</v>
+        <v>55402.209618000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>15.389503</v>
+        <v>15.389502999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1693.960000</v>
+        <v>1693.96</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1049.260000</v>
+        <v>-1049.26</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>55412.862198</v>
+        <v>55412.862198000003</v>
       </c>
       <c r="BO12" s="1">
         <v>15.392462</v>
       </c>
       <c r="BP12" s="1">
-        <v>1990.640000</v>
+        <v>1990.64</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1807.500000</v>
+        <v>-1807.5</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>55424.199251</v>
+        <v>55424.199250999998</v>
       </c>
       <c r="BT12" s="1">
-        <v>15.395611</v>
+        <v>15.395611000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>2380.340000</v>
+        <v>2380.34</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2676.300000</v>
+        <v>-2676.3</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>55435.372630</v>
+        <v>55435.372629999998</v>
       </c>
       <c r="BY12" s="1">
-        <v>15.398715</v>
+        <v>15.398714999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2865.410000</v>
+        <v>2865.41</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3626.560000</v>
+        <v>-3626.56</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>55447.273108</v>
+        <v>55447.273108000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>15.402020</v>
+        <v>15.40202</v>
       </c>
       <c r="CE12" s="1">
-        <v>4278.580000</v>
+        <v>4278.58</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5881.000000</v>
+        <v>-5881</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>55276.153830</v>
+        <v>55276.153830000003</v>
       </c>
       <c r="B13" s="1">
-        <v>15.354487</v>
+        <v>15.354487000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>1247.720000</v>
+        <v>1247.72</v>
       </c>
       <c r="D13" s="1">
-        <v>-303.356000</v>
+        <v>-303.35599999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>55286.518730</v>
+        <v>55286.518730000003</v>
       </c>
       <c r="G13" s="1">
-        <v>15.357366</v>
+        <v>15.357366000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1271.760000</v>
+        <v>1271.76</v>
       </c>
       <c r="I13" s="1">
-        <v>-262.385000</v>
+        <v>-262.38499999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>55296.653795</v>
+        <v>55296.653794999998</v>
       </c>
       <c r="L13" s="1">
         <v>15.360182</v>
       </c>
       <c r="M13" s="1">
-        <v>1306.960000</v>
+        <v>1306.96</v>
       </c>
       <c r="N13" s="1">
-        <v>-201.174000</v>
+        <v>-201.17400000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>55307.198429</v>
+        <v>55307.198428999996</v>
       </c>
       <c r="Q13" s="1">
         <v>15.363111</v>
       </c>
       <c r="R13" s="1">
-        <v>1318.450000</v>
+        <v>1318.45</v>
       </c>
       <c r="S13" s="1">
-        <v>-183.706000</v>
+        <v>-183.70599999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>55317.705679</v>
+        <v>55317.705678999999</v>
       </c>
       <c r="V13" s="1">
-        <v>15.366029</v>
+        <v>15.366028999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>1331.670000</v>
+        <v>1331.67</v>
       </c>
       <c r="X13" s="1">
-        <v>-170.511000</v>
+        <v>-170.511</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>55328.508080</v>
+        <v>55328.50808</v>
       </c>
       <c r="AA13" s="1">
-        <v>15.369030</v>
+        <v>15.36903</v>
       </c>
       <c r="AB13" s="1">
-        <v>1348.890000</v>
+        <v>1348.89</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.981000</v>
+        <v>-168.98099999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>55339.019268</v>
+        <v>55339.019267999996</v>
       </c>
       <c r="AF13" s="1">
-        <v>15.371950</v>
+        <v>15.37195</v>
       </c>
       <c r="AG13" s="1">
-        <v>1362.140000</v>
+        <v>1362.14</v>
       </c>
       <c r="AH13" s="1">
-        <v>-179.138000</v>
+        <v>-179.13800000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>55349.227430</v>
+        <v>55349.227429999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>15.374785</v>
+        <v>15.374784999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1383.240000</v>
+        <v>1383.24</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.344000</v>
+        <v>-209.34399999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>55359.681618</v>
+        <v>55359.681618000002</v>
       </c>
       <c r="AP13" s="1">
         <v>15.377689</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1405.430000</v>
+        <v>1405.43</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.162000</v>
+        <v>-253.16200000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>55370.381338</v>
+        <v>55370.381337999999</v>
       </c>
       <c r="AU13" s="1">
         <v>15.380661</v>
       </c>
       <c r="AV13" s="1">
-        <v>1430.640000</v>
+        <v>1430.64</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.927000</v>
+        <v>-312.92700000000002</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>55381.098891</v>
+        <v>55381.098891000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>15.383639</v>
+        <v>15.383639000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1450.520000</v>
+        <v>1450.52</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.634000</v>
+        <v>-364.63400000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>55391.736093</v>
@@ -3473,73 +3889,73 @@
         <v>15.386593</v>
       </c>
       <c r="BF13" s="1">
-        <v>1537.610000</v>
+        <v>1537.61</v>
       </c>
       <c r="BG13" s="1">
-        <v>-610.327000</v>
+        <v>-610.327</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>55402.633663</v>
+        <v>55402.633663000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>15.389620</v>
+        <v>15.389620000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1693.900000</v>
+        <v>1693.9</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1049.200000</v>
+        <v>-1049.2</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>55413.633440</v>
+        <v>55413.633439999998</v>
       </c>
       <c r="BO13" s="1">
         <v>15.392676</v>
       </c>
       <c r="BP13" s="1">
-        <v>1990.670000</v>
+        <v>1990.67</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1807.310000</v>
+        <v>-1807.31</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>55424.591563</v>
+        <v>55424.591563000002</v>
       </c>
       <c r="BT13" s="1">
-        <v>15.395720</v>
+        <v>15.395720000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>2380.760000</v>
+        <v>2380.7600000000002</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2676.390000</v>
+        <v>-2676.39</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>55435.804147</v>
+        <v>55435.804147000003</v>
       </c>
       <c r="BY13" s="1">
-        <v>15.398834</v>
+        <v>15.398834000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2865.310000</v>
+        <v>2865.31</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3625.220000</v>
+        <v>-3625.22</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>55447.788451</v>
@@ -3548,60 +3964,60 @@
         <v>15.402163</v>
       </c>
       <c r="CE13" s="1">
-        <v>4269.740000</v>
+        <v>4269.74</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5895.440000</v>
+        <v>-5895.44</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>55276.497063</v>
+        <v>55276.497063000003</v>
       </c>
       <c r="B14" s="1">
         <v>15.354583</v>
       </c>
       <c r="C14" s="1">
-        <v>1247.720000</v>
+        <v>1247.72</v>
       </c>
       <c r="D14" s="1">
-        <v>-303.406000</v>
+        <v>-303.40600000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>55286.862456</v>
+        <v>55286.862456000003</v>
       </c>
       <c r="G14" s="1">
         <v>15.357462</v>
       </c>
       <c r="H14" s="1">
-        <v>1272.210000</v>
+        <v>1272.21</v>
       </c>
       <c r="I14" s="1">
-        <v>-261.854000</v>
+        <v>-261.85399999999998</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>55296.999691</v>
+        <v>55296.999690999997</v>
       </c>
       <c r="L14" s="1">
-        <v>15.360278</v>
+        <v>15.360277999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1306.820000</v>
+        <v>1306.82</v>
       </c>
       <c r="N14" s="1">
-        <v>-201.478000</v>
+        <v>-201.47800000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>55307.858108</v>
@@ -3610,1041 +4026,1041 @@
         <v>15.363294</v>
       </c>
       <c r="R14" s="1">
-        <v>1318.400000</v>
+        <v>1318.4</v>
       </c>
       <c r="S14" s="1">
-        <v>-183.698000</v>
+        <v>-183.69800000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>55318.358416</v>
+        <v>55318.358416000003</v>
       </c>
       <c r="V14" s="1">
         <v>15.366211</v>
       </c>
       <c r="W14" s="1">
-        <v>1331.360000</v>
+        <v>1331.36</v>
       </c>
       <c r="X14" s="1">
-        <v>-170.706000</v>
+        <v>-170.70599999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>55328.898896</v>
+        <v>55328.898895999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>15.369139</v>
+        <v>15.369139000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>1348.850000</v>
+        <v>1348.85</v>
       </c>
       <c r="AC14" s="1">
-        <v>-169.052000</v>
+        <v>-169.05199999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>55339.393252</v>
+        <v>55339.393252000002</v>
       </c>
       <c r="AF14" s="1">
         <v>15.372054</v>
       </c>
       <c r="AG14" s="1">
-        <v>1362.130000</v>
+        <v>1362.13</v>
       </c>
       <c r="AH14" s="1">
-        <v>-179.097000</v>
+        <v>-179.09700000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>55349.579093</v>
       </c>
       <c r="AK14" s="1">
-        <v>15.374883</v>
+        <v>15.374883000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1383.190000</v>
+        <v>1383.19</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.348000</v>
+        <v>-209.34800000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>55360.042200</v>
+        <v>55360.042200000004</v>
       </c>
       <c r="AP14" s="1">
         <v>15.377789</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1405.450000</v>
+        <v>1405.45</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.166000</v>
+        <v>-253.166</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>55370.746878</v>
+        <v>55370.746877999998</v>
       </c>
       <c r="AU14" s="1">
         <v>15.380763</v>
       </c>
       <c r="AV14" s="1">
-        <v>1430.710000</v>
+        <v>1430.71</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.897000</v>
+        <v>-312.89699999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>55381.515501</v>
+        <v>55381.515501000002</v>
       </c>
       <c r="AZ14" s="1">
         <v>15.383754</v>
       </c>
       <c r="BA14" s="1">
-        <v>1450.470000</v>
+        <v>1450.47</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.660000</v>
+        <v>-364.66</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>55392.156206</v>
       </c>
       <c r="BE14" s="1">
-        <v>15.386710</v>
+        <v>15.386710000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1537.590000</v>
+        <v>1537.59</v>
       </c>
       <c r="BG14" s="1">
-        <v>-610.347000</v>
+        <v>-610.34699999999998</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>55402.976399</v>
+        <v>55402.976398999999</v>
       </c>
       <c r="BJ14" s="1">
         <v>15.389716</v>
       </c>
       <c r="BK14" s="1">
-        <v>1693.960000</v>
+        <v>1693.96</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1049.300000</v>
+        <v>-1049.3</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>55414.033745</v>
+        <v>55414.033745000001</v>
       </c>
       <c r="BO14" s="1">
         <v>15.392787</v>
       </c>
       <c r="BP14" s="1">
-        <v>1990.580000</v>
+        <v>1990.58</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1807.390000</v>
+        <v>-1807.39</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>55425.005250</v>
+        <v>55425.005250000002</v>
       </c>
       <c r="BT14" s="1">
         <v>15.395835</v>
       </c>
       <c r="BU14" s="1">
-        <v>2381.160000</v>
+        <v>2381.16</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2676.510000</v>
+        <v>-2676.51</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>55436.223730</v>
+        <v>55436.223729999998</v>
       </c>
       <c r="BY14" s="1">
         <v>15.398951</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2864.730000</v>
+        <v>2864.73</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3625.810000</v>
+        <v>-3625.81</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>55448.340325</v>
+        <v>55448.340324999997</v>
       </c>
       <c r="CD14" s="1">
         <v>15.402317</v>
       </c>
       <c r="CE14" s="1">
-        <v>4285.310000</v>
+        <v>4285.3100000000004</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5902.640000</v>
+        <v>-5902.64</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>55276.836357</v>
       </c>
       <c r="B15" s="1">
-        <v>15.354677</v>
+        <v>15.354677000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1248.050000</v>
+        <v>1248.05</v>
       </c>
       <c r="D15" s="1">
-        <v>-303.476000</v>
+        <v>-303.476</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>55287.208695</v>
+        <v>55287.208695000001</v>
       </c>
       <c r="G15" s="1">
-        <v>15.357558</v>
+        <v>15.357557999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1272.720000</v>
+        <v>1272.72</v>
       </c>
       <c r="I15" s="1">
-        <v>-262.365000</v>
+        <v>-262.36500000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>55297.662347</v>
+        <v>55297.662346999998</v>
       </c>
       <c r="L15" s="1">
         <v>15.360462</v>
       </c>
       <c r="M15" s="1">
-        <v>1306.860000</v>
+        <v>1306.8599999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-201.545000</v>
+        <v>-201.54499999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>55308.243003</v>
+        <v>55308.243003000003</v>
       </c>
       <c r="Q15" s="1">
         <v>15.363401</v>
       </c>
       <c r="R15" s="1">
-        <v>1318.480000</v>
+        <v>1318.48</v>
       </c>
       <c r="S15" s="1">
-        <v>-183.625000</v>
+        <v>-183.625</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>55318.737854</v>
+        <v>55318.737853999999</v>
       </c>
       <c r="V15" s="1">
-        <v>15.366316</v>
+        <v>15.366315999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1331.440000</v>
+        <v>1331.44</v>
       </c>
       <c r="X15" s="1">
-        <v>-170.785000</v>
+        <v>-170.785</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>55329.246097</v>
+        <v>55329.246097000003</v>
       </c>
       <c r="AA15" s="1">
         <v>15.369235</v>
       </c>
       <c r="AB15" s="1">
-        <v>1348.880000</v>
+        <v>1348.88</v>
       </c>
       <c r="AC15" s="1">
-        <v>-169.093000</v>
+        <v>-169.09299999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>55339.738466</v>
+        <v>55339.738466000003</v>
       </c>
       <c r="AF15" s="1">
-        <v>15.372150</v>
+        <v>15.37215</v>
       </c>
       <c r="AG15" s="1">
-        <v>1362.130000</v>
+        <v>1362.13</v>
       </c>
       <c r="AH15" s="1">
-        <v>-179.122000</v>
+        <v>-179.12200000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>55349.924309</v>
+        <v>55349.924309000002</v>
       </c>
       <c r="AK15" s="1">
         <v>15.374979</v>
       </c>
       <c r="AL15" s="1">
-        <v>1383.220000</v>
+        <v>1383.22</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.363000</v>
+        <v>-209.363</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>55360.468262</v>
+        <v>55360.468262000002</v>
       </c>
       <c r="AP15" s="1">
         <v>15.377908</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1405.410000</v>
+        <v>1405.41</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.179000</v>
+        <v>-253.179</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>55371.169448</v>
+        <v>55371.169448000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>15.380880</v>
+        <v>15.380879999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1430.720000</v>
+        <v>1430.72</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.897000</v>
+        <v>-312.89699999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>55381.817595</v>
       </c>
       <c r="AZ15" s="1">
-        <v>15.383838</v>
+        <v>15.383838000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1450.460000</v>
+        <v>1450.46</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.621000</v>
+        <v>-364.62099999999998</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>55392.459761</v>
+        <v>55392.459760999998</v>
       </c>
       <c r="BE15" s="1">
         <v>15.386794</v>
       </c>
       <c r="BF15" s="1">
-        <v>1537.590000</v>
+        <v>1537.59</v>
       </c>
       <c r="BG15" s="1">
-        <v>-610.361000</v>
+        <v>-610.36099999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>55403.351374</v>
+        <v>55403.351373999998</v>
       </c>
       <c r="BJ15" s="1">
-        <v>15.389820</v>
+        <v>15.38982</v>
       </c>
       <c r="BK15" s="1">
-        <v>1694.050000</v>
+        <v>1694.05</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1049.190000</v>
+        <v>-1049.19</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>55414.444895</v>
+        <v>55414.444895000001</v>
       </c>
       <c r="BO15" s="1">
         <v>15.392901</v>
       </c>
       <c r="BP15" s="1">
-        <v>1990.430000</v>
+        <v>1990.43</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1807.350000</v>
+        <v>-1807.35</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>55425.415444</v>
+        <v>55425.415443999998</v>
       </c>
       <c r="BT15" s="1">
         <v>15.395949</v>
       </c>
       <c r="BU15" s="1">
-        <v>2381.450000</v>
+        <v>2381.4499999999998</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2676.880000</v>
+        <v>-2676.88</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>55436.648802</v>
+        <v>55436.648802000003</v>
       </c>
       <c r="BY15" s="1">
-        <v>15.399069</v>
+        <v>15.399069000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2864.780000</v>
+        <v>2864.78</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3625.390000</v>
+        <v>-3625.39</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>55448.828562</v>
+        <v>55448.828562000002</v>
       </c>
       <c r="CD15" s="1">
         <v>15.402452</v>
       </c>
       <c r="CE15" s="1">
-        <v>4290.320000</v>
+        <v>4290.32</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5886.830000</v>
+        <v>-5886.83</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>55277.492532</v>
+        <v>55277.492531999997</v>
       </c>
       <c r="B16" s="1">
-        <v>15.354859</v>
+        <v>15.354858999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1247.540000</v>
+        <v>1247.54</v>
       </c>
       <c r="D16" s="1">
-        <v>-303.685000</v>
+        <v>-303.685</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>55287.714128</v>
       </c>
       <c r="G16" s="1">
-        <v>15.357698</v>
+        <v>15.357697999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>1271.990000</v>
+        <v>1271.99</v>
       </c>
       <c r="I16" s="1">
-        <v>-262.025000</v>
+        <v>-262.02499999999998</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>55298.037321</v>
+        <v>55298.037321000003</v>
       </c>
       <c r="L16" s="1">
         <v>15.360566</v>
       </c>
       <c r="M16" s="1">
-        <v>1306.910000</v>
+        <v>1306.9100000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-201.306000</v>
+        <v>-201.30600000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>55308.592683</v>
+        <v>55308.592683000003</v>
       </c>
       <c r="Q16" s="1">
         <v>15.363498</v>
       </c>
       <c r="R16" s="1">
-        <v>1318.530000</v>
+        <v>1318.53</v>
       </c>
       <c r="S16" s="1">
-        <v>-183.651000</v>
+        <v>-183.65100000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>55319.081581</v>
+        <v>55319.081580999999</v>
       </c>
       <c r="V16" s="1">
         <v>15.366412</v>
       </c>
       <c r="W16" s="1">
-        <v>1331.450000</v>
+        <v>1331.45</v>
       </c>
       <c r="X16" s="1">
-        <v>-170.732000</v>
+        <v>-170.732</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>55329.598752</v>
+        <v>55329.598751999998</v>
       </c>
       <c r="AA16" s="1">
-        <v>15.369333</v>
+        <v>15.369332999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1348.850000</v>
+        <v>1348.85</v>
       </c>
       <c r="AC16" s="1">
-        <v>-169.127000</v>
+        <v>-169.12700000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>55340.087153</v>
       </c>
       <c r="AF16" s="1">
-        <v>15.372246</v>
+        <v>15.372246000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1362.030000</v>
+        <v>1362.03</v>
       </c>
       <c r="AH16" s="1">
-        <v>-179.143000</v>
+        <v>-179.143</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>55350.353350</v>
+        <v>55350.353349999998</v>
       </c>
       <c r="AK16" s="1">
-        <v>15.375098</v>
+        <v>15.375097999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1383.210000</v>
+        <v>1383.21</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.344000</v>
+        <v>-209.34399999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>55360.762887</v>
+        <v>55360.762886999997</v>
       </c>
       <c r="AP16" s="1">
-        <v>15.377990</v>
+        <v>15.37799</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1405.460000</v>
+        <v>1405.46</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.194000</v>
+        <v>-253.19399999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>55371.476472</v>
+        <v>55371.476472000002</v>
       </c>
       <c r="AU16" s="1">
-        <v>15.380966</v>
+        <v>15.380966000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1430.640000</v>
+        <v>1430.64</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.943000</v>
+        <v>-312.94299999999998</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>55382.174682</v>
+        <v>55382.174681999997</v>
       </c>
       <c r="AZ16" s="1">
         <v>15.383937</v>
       </c>
       <c r="BA16" s="1">
-        <v>1450.470000</v>
+        <v>1450.47</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.650000</v>
+        <v>-364.65</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>55392.820317</v>
+        <v>55392.820316999998</v>
       </c>
       <c r="BE16" s="1">
-        <v>15.386895</v>
+        <v>15.386895000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1537.600000</v>
+        <v>1537.6</v>
       </c>
       <c r="BG16" s="1">
-        <v>-610.334000</v>
+        <v>-610.33399999999995</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>55403.728334</v>
+        <v>55403.728333999999</v>
       </c>
       <c r="BJ16" s="1">
         <v>15.389925</v>
       </c>
       <c r="BK16" s="1">
-        <v>1693.960000</v>
+        <v>1693.96</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1049.270000</v>
+        <v>-1049.27</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>55414.860543</v>
+        <v>55414.860543000003</v>
       </c>
       <c r="BO16" s="1">
         <v>15.393017</v>
       </c>
       <c r="BP16" s="1">
-        <v>1990.560000</v>
+        <v>1990.56</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1807.130000</v>
+        <v>-1807.13</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>55425.842464</v>
+        <v>55425.842464000001</v>
       </c>
       <c r="BT16" s="1">
         <v>15.396067</v>
       </c>
       <c r="BU16" s="1">
-        <v>2382.080000</v>
+        <v>2382.08</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2677.130000</v>
+        <v>-2677.13</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>55437.103169</v>
+        <v>55437.103169000002</v>
       </c>
       <c r="BY16" s="1">
-        <v>15.399195</v>
+        <v>15.399195000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2864.350000</v>
+        <v>2864.35</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3626.210000</v>
+        <v>-3626.21</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>55449.346881</v>
+        <v>55449.346880999998</v>
       </c>
       <c r="CD16" s="1">
-        <v>15.402596</v>
+        <v>15.402596000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>4292.400000</v>
+        <v>4292.3999999999996</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5889.560000</v>
+        <v>-5889.56</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>55277.862580</v>
+        <v>55277.862580000001</v>
       </c>
       <c r="B17" s="1">
         <v>15.354962</v>
       </c>
       <c r="C17" s="1">
-        <v>1247.710000</v>
+        <v>1247.71</v>
       </c>
       <c r="D17" s="1">
-        <v>-303.860000</v>
+        <v>-303.86</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>55287.899095</v>
+        <v>55287.899095000001</v>
       </c>
       <c r="G17" s="1">
-        <v>15.357750</v>
+        <v>15.357749999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1271.780000</v>
+        <v>1271.78</v>
       </c>
       <c r="I17" s="1">
-        <v>-262.880000</v>
+        <v>-262.88</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>55298.380584</v>
+        <v>55298.380583999999</v>
       </c>
       <c r="L17" s="1">
         <v>15.360661</v>
       </c>
       <c r="M17" s="1">
-        <v>1306.810000</v>
+        <v>1306.81</v>
       </c>
       <c r="N17" s="1">
-        <v>-201.188000</v>
+        <v>-201.18799999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>55308.940380</v>
+        <v>55308.94038</v>
       </c>
       <c r="Q17" s="1">
         <v>15.363595</v>
       </c>
       <c r="R17" s="1">
-        <v>1318.490000</v>
+        <v>1318.49</v>
       </c>
       <c r="S17" s="1">
-        <v>-183.721000</v>
+        <v>-183.721</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>55319.431262</v>
+        <v>55319.431261999998</v>
       </c>
       <c r="V17" s="1">
-        <v>15.366509</v>
+        <v>15.366509000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1331.540000</v>
+        <v>1331.54</v>
       </c>
       <c r="X17" s="1">
-        <v>-170.531000</v>
+        <v>-170.53100000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>55330.017445</v>
+        <v>55330.017444999998</v>
       </c>
       <c r="AA17" s="1">
-        <v>15.369449</v>
+        <v>15.369448999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1348.850000</v>
+        <v>1348.85</v>
       </c>
       <c r="AC17" s="1">
-        <v>-169.066000</v>
+        <v>-169.066</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>55340.623330</v>
+        <v>55340.623330000002</v>
       </c>
       <c r="AF17" s="1">
-        <v>15.372395</v>
+        <v>15.372394999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1362.040000</v>
+        <v>1362.04</v>
       </c>
       <c r="AH17" s="1">
-        <v>-179.113000</v>
+        <v>-179.113</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>55350.628665</v>
+        <v>55350.628664999997</v>
       </c>
       <c r="AK17" s="1">
         <v>15.375175</v>
       </c>
       <c r="AL17" s="1">
-        <v>1383.210000</v>
+        <v>1383.21</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.330000</v>
+        <v>-209.33</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>55361.123507</v>
+        <v>55361.123506999997</v>
       </c>
       <c r="AP17" s="1">
-        <v>15.378090</v>
+        <v>15.37809</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1405.440000</v>
+        <v>1405.44</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.191000</v>
+        <v>-253.191</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>55371.840039</v>
+        <v>55371.840039000002</v>
       </c>
       <c r="AU17" s="1">
         <v>15.381067</v>
       </c>
       <c r="AV17" s="1">
-        <v>1430.690000</v>
+        <v>1430.69</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.923000</v>
+        <v>-312.923</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>55382.534313</v>
+        <v>55382.534312999996</v>
       </c>
       <c r="AZ17" s="1">
-        <v>15.384037</v>
+        <v>15.384036999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1450.460000</v>
+        <v>1450.46</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.634000</v>
+        <v>-364.63400000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>55393.183883</v>
+        <v>55393.183882999998</v>
       </c>
       <c r="BE17" s="1">
         <v>15.386996</v>
       </c>
       <c r="BF17" s="1">
-        <v>1537.580000</v>
+        <v>1537.58</v>
       </c>
       <c r="BG17" s="1">
-        <v>-610.345000</v>
+        <v>-610.34500000000003</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>55404.477641</v>
+        <v>55404.477640999998</v>
       </c>
       <c r="BJ17" s="1">
-        <v>15.390133</v>
+        <v>15.390133000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1694.020000</v>
+        <v>1694.02</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1049.160000</v>
+        <v>-1049.1600000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>55415.265316</v>
+        <v>55415.265315999997</v>
       </c>
       <c r="BO17" s="1">
         <v>15.393129</v>
       </c>
       <c r="BP17" s="1">
-        <v>1990.640000</v>
+        <v>1990.64</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1807.250000</v>
+        <v>-1807.25</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>55426.273520</v>
+        <v>55426.273520000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>15.396187</v>
+        <v>15.396186999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>2382.430000</v>
+        <v>2382.4299999999998</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2677.160000</v>
+        <v>-2677.16</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>55437.517334</v>
+        <v>55437.517333999996</v>
       </c>
       <c r="BY17" s="1">
-        <v>15.399310</v>
+        <v>15.39931</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2864.540000</v>
+        <v>2864.54</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3625.770000</v>
+        <v>-3625.77</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>55450.217360</v>
+        <v>55450.217360000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>15.402838</v>
+        <v>15.402837999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>4285.110000</v>
+        <v>4285.1099999999997</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5902.800000</v>
+        <v>-5902.8</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>55278.206308</v>
+        <v>55278.206308000001</v>
       </c>
       <c r="B18" s="1">
         <v>15.355057</v>
       </c>
       <c r="C18" s="1">
-        <v>1247.640000</v>
+        <v>1247.6400000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-303.722000</v>
+        <v>-303.72199999999998</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>55288.240840</v>
+        <v>55288.240839999999</v>
       </c>
       <c r="G18" s="1">
-        <v>15.357845</v>
+        <v>15.357844999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>1272.410000</v>
+        <v>1272.4100000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-262.499000</v>
+        <v>-262.49900000000002</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>55298.726792</v>
+        <v>55298.726792000001</v>
       </c>
       <c r="L18" s="1">
         <v>15.360757</v>
       </c>
       <c r="M18" s="1">
-        <v>1306.770000</v>
+        <v>1306.77</v>
       </c>
       <c r="N18" s="1">
-        <v>-201.381000</v>
+        <v>-201.381</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>55309.372394</v>
+        <v>55309.372393999998</v>
       </c>
       <c r="Q18" s="1">
-        <v>15.363715</v>
+        <v>15.363714999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1318.470000</v>
+        <v>1318.47</v>
       </c>
       <c r="S18" s="1">
-        <v>-183.720000</v>
+        <v>-183.72</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>55319.851875</v>
@@ -4653,467 +5069,467 @@
         <v>15.366626</v>
       </c>
       <c r="W18" s="1">
-        <v>1331.580000</v>
+        <v>1331.58</v>
       </c>
       <c r="X18" s="1">
-        <v>-170.595000</v>
+        <v>-170.595</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>55330.304098</v>
+        <v>55330.304098000001</v>
       </c>
       <c r="AA18" s="1">
         <v>15.369529</v>
       </c>
       <c r="AB18" s="1">
-        <v>1348.960000</v>
+        <v>1348.96</v>
       </c>
       <c r="AC18" s="1">
-        <v>-169.064000</v>
+        <v>-169.06399999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>55340.772130</v>
+        <v>55340.772129999998</v>
       </c>
       <c r="AF18" s="1">
         <v>15.372437</v>
       </c>
       <c r="AG18" s="1">
-        <v>1362.120000</v>
+        <v>1362.12</v>
       </c>
       <c r="AH18" s="1">
-        <v>-179.158000</v>
+        <v>-179.15799999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>55350.976324</v>
+        <v>55350.976324000003</v>
       </c>
       <c r="AK18" s="1">
         <v>15.375271</v>
       </c>
       <c r="AL18" s="1">
-        <v>1383.200000</v>
+        <v>1383.2</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.337000</v>
+        <v>-209.33699999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>55361.484069</v>
+        <v>55361.484068999998</v>
       </c>
       <c r="AP18" s="1">
-        <v>15.378190</v>
+        <v>15.37819</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1405.440000</v>
+        <v>1405.44</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.171000</v>
+        <v>-253.17099999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>55372.206088</v>
+        <v>55372.206087999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>15.381168</v>
+        <v>15.381168000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1430.680000</v>
+        <v>1430.68</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.917000</v>
+        <v>-312.91699999999997</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>55383.250504</v>
+        <v>55383.250504000003</v>
       </c>
       <c r="AZ18" s="1">
         <v>15.384236</v>
       </c>
       <c r="BA18" s="1">
-        <v>1450.440000</v>
+        <v>1450.44</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.625000</v>
+        <v>-364.625</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>55393.903116</v>
+        <v>55393.903116000001</v>
       </c>
       <c r="BE18" s="1">
         <v>15.387195</v>
       </c>
       <c r="BF18" s="1">
-        <v>1537.580000</v>
+        <v>1537.58</v>
       </c>
       <c r="BG18" s="1">
-        <v>-610.335000</v>
+        <v>-610.33500000000004</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>55404.852764</v>
+        <v>55404.852764000003</v>
       </c>
       <c r="BJ18" s="1">
-        <v>15.390237</v>
+        <v>15.390237000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1693.920000</v>
+        <v>1693.92</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1049.150000</v>
+        <v>-1049.1500000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>55415.663101</v>
+        <v>55415.663100999998</v>
       </c>
       <c r="BO18" s="1">
-        <v>15.393240</v>
+        <v>15.39324</v>
       </c>
       <c r="BP18" s="1">
-        <v>1990.580000</v>
+        <v>1990.58</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1807.100000</v>
+        <v>-1807.1</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>55426.701568</v>
+        <v>55426.701567999997</v>
       </c>
       <c r="BT18" s="1">
-        <v>15.396306</v>
+        <v>15.396305999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>2382.380000</v>
+        <v>2382.38</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2677.670000</v>
+        <v>-2677.67</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>55438.286096</v>
+        <v>55438.286096000003</v>
       </c>
       <c r="BY18" s="1">
         <v>15.399524</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2864.710000</v>
+        <v>2864.71</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3625.700000</v>
+        <v>-3625.7</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>55450.425183</v>
+        <v>55450.425182999999</v>
       </c>
       <c r="CD18" s="1">
         <v>15.402896</v>
       </c>
       <c r="CE18" s="1">
-        <v>4290.830000</v>
+        <v>4290.83</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5886.790000</v>
+        <v>-5886.79</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>55278.546562</v>
+        <v>55278.546562000003</v>
       </c>
       <c r="B19" s="1">
         <v>15.355152</v>
       </c>
       <c r="C19" s="1">
-        <v>1247.860000</v>
+        <v>1247.8599999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-303.493000</v>
+        <v>-303.49299999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>55288.659960</v>
+        <v>55288.659959999997</v>
       </c>
       <c r="G19" s="1">
         <v>15.357961</v>
       </c>
       <c r="H19" s="1">
-        <v>1271.920000</v>
+        <v>1271.92</v>
       </c>
       <c r="I19" s="1">
-        <v>-262.391000</v>
+        <v>-262.39100000000002</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>55299.147864</v>
+        <v>55299.147863999999</v>
       </c>
       <c r="L19" s="1">
-        <v>15.360874</v>
+        <v>15.360874000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1306.760000</v>
+        <v>1306.76</v>
       </c>
       <c r="N19" s="1">
-        <v>-201.435000</v>
+        <v>-201.435</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>55309.638747</v>
+        <v>55309.638746999997</v>
       </c>
       <c r="Q19" s="1">
-        <v>15.363789</v>
+        <v>15.363789000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1318.440000</v>
+        <v>1318.44</v>
       </c>
       <c r="S19" s="1">
-        <v>-183.700000</v>
+        <v>-183.7</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>55320.137068</v>
+        <v>55320.137068000004</v>
       </c>
       <c r="V19" s="1">
         <v>15.366705</v>
       </c>
       <c r="W19" s="1">
-        <v>1331.620000</v>
+        <v>1331.62</v>
       </c>
       <c r="X19" s="1">
-        <v>-170.731000</v>
+        <v>-170.73099999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>55330.657710</v>
+        <v>55330.657709999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>15.369627</v>
+        <v>15.369626999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1348.900000</v>
+        <v>1348.9</v>
       </c>
       <c r="AC19" s="1">
-        <v>-169.153000</v>
+        <v>-169.15299999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>55341.116580</v>
+        <v>55341.116580000002</v>
       </c>
       <c r="AF19" s="1">
         <v>15.372532</v>
       </c>
       <c r="AG19" s="1">
-        <v>1362.040000</v>
+        <v>1362.04</v>
       </c>
       <c r="AH19" s="1">
-        <v>-179.149000</v>
+        <v>-179.149</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>55351.322044</v>
       </c>
       <c r="AK19" s="1">
-        <v>15.375367</v>
+        <v>15.375367000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1383.210000</v>
+        <v>1383.21</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.317000</v>
+        <v>-209.31700000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>55362.211700</v>
+        <v>55362.2117</v>
       </c>
       <c r="AP19" s="1">
         <v>15.378392</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1405.420000</v>
+        <v>1405.42</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.189000</v>
+        <v>-253.18899999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>55372.934246</v>
+        <v>55372.934245999997</v>
       </c>
       <c r="AU19" s="1">
         <v>15.381371</v>
       </c>
       <c r="AV19" s="1">
-        <v>1430.690000</v>
+        <v>1430.69</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.922000</v>
+        <v>-312.92200000000003</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>55383.614601</v>
+        <v>55383.614601000001</v>
       </c>
       <c r="AZ19" s="1">
         <v>15.384337</v>
       </c>
       <c r="BA19" s="1">
-        <v>1450.470000</v>
+        <v>1450.47</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.637000</v>
+        <v>-364.637</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>55394.292939</v>
+        <v>55394.292938999999</v>
       </c>
       <c r="BE19" s="1">
         <v>15.387304</v>
       </c>
       <c r="BF19" s="1">
-        <v>1537.560000</v>
+        <v>1537.56</v>
       </c>
       <c r="BG19" s="1">
-        <v>-610.325000</v>
+        <v>-610.32500000000005</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>55405.227743</v>
+        <v>55405.227743000003</v>
       </c>
       <c r="BJ19" s="1">
-        <v>15.390341</v>
+        <v>15.390340999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1693.970000</v>
+        <v>1693.97</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1049.230000</v>
+        <v>-1049.23</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>55416.399133</v>
+        <v>55416.399132999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>15.393444</v>
+        <v>15.393444000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1990.550000</v>
+        <v>1990.55</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1807.160000</v>
+        <v>-1807.16</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>55427.425519</v>
+        <v>55427.425518999997</v>
       </c>
       <c r="BT19" s="1">
         <v>15.396507</v>
       </c>
       <c r="BU19" s="1">
-        <v>2382.300000</v>
+        <v>2382.3000000000002</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2678.190000</v>
+        <v>-2678.19</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>55438.421999</v>
+        <v>55438.421998999998</v>
       </c>
       <c r="BY19" s="1">
         <v>15.399562</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2864.980000</v>
+        <v>2864.98</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3626.280000</v>
+        <v>-3626.28</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>55450.944032</v>
+        <v>55450.944031999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>15.403040</v>
+        <v>15.403040000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>4269.400000</v>
+        <v>4269.3999999999996</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5891.440000</v>
+        <v>-5891.44</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>55278.967667</v>
+        <v>55278.967666999997</v>
       </c>
       <c r="B20" s="1">
         <v>15.355269</v>
       </c>
       <c r="C20" s="1">
-        <v>1247.510000</v>
+        <v>1247.51</v>
       </c>
       <c r="D20" s="1">
-        <v>-303.344000</v>
+        <v>-303.34399999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>55288.958585</v>
@@ -5122,73 +5538,73 @@
         <v>15.358044</v>
       </c>
       <c r="H20" s="1">
-        <v>1272.050000</v>
+        <v>1272.05</v>
       </c>
       <c r="I20" s="1">
-        <v>-262.544000</v>
+        <v>-262.54399999999998</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>55299.436046</v>
+        <v>55299.436046000003</v>
       </c>
       <c r="L20" s="1">
         <v>15.360954</v>
       </c>
       <c r="M20" s="1">
-        <v>1306.480000</v>
+        <v>1306.48</v>
       </c>
       <c r="N20" s="1">
-        <v>-201.292000</v>
+        <v>-201.292</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>55309.985481</v>
+        <v>55309.985481000003</v>
       </c>
       <c r="Q20" s="1">
         <v>15.363885</v>
       </c>
       <c r="R20" s="1">
-        <v>1318.390000</v>
+        <v>1318.39</v>
       </c>
       <c r="S20" s="1">
-        <v>-183.659000</v>
+        <v>-183.65899999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>55320.477328</v>
+        <v>55320.477328000001</v>
       </c>
       <c r="V20" s="1">
         <v>15.366799</v>
       </c>
       <c r="W20" s="1">
-        <v>1331.730000</v>
+        <v>1331.73</v>
       </c>
       <c r="X20" s="1">
-        <v>-170.810000</v>
+        <v>-170.81</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>55331.005935</v>
+        <v>55331.005935000001</v>
       </c>
       <c r="AA20" s="1">
         <v>15.369724</v>
       </c>
       <c r="AB20" s="1">
-        <v>1348.930000</v>
+        <v>1348.93</v>
       </c>
       <c r="AC20" s="1">
-        <v>-169.131000</v>
+        <v>-169.131</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>55341.805793</v>
@@ -5197,225 +5613,225 @@
         <v>15.372724</v>
       </c>
       <c r="AG20" s="1">
-        <v>1362.100000</v>
+        <v>1362.1</v>
       </c>
       <c r="AH20" s="1">
-        <v>-179.161000</v>
+        <v>-179.161</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>55352.021426</v>
+        <v>55352.021425999999</v>
       </c>
       <c r="AK20" s="1">
         <v>15.375562</v>
       </c>
       <c r="AL20" s="1">
-        <v>1383.170000</v>
+        <v>1383.17</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.322000</v>
+        <v>-209.322</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>55362.587702</v>
+        <v>55362.587701999997</v>
       </c>
       <c r="AP20" s="1">
-        <v>15.378497</v>
+        <v>15.378496999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1405.440000</v>
+        <v>1405.44</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.188000</v>
+        <v>-253.18799999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>55373.320133</v>
+        <v>55373.320133000001</v>
       </c>
       <c r="AU20" s="1">
         <v>15.381478</v>
       </c>
       <c r="AV20" s="1">
-        <v>1430.670000</v>
+        <v>1430.67</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.902000</v>
+        <v>-312.90199999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>55383.971193</v>
+        <v>55383.971192999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>15.384436</v>
+        <v>15.384436000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1450.430000</v>
+        <v>1450.43</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.644000</v>
+        <v>-364.64400000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>55394.694217</v>
+        <v>55394.694216999997</v>
       </c>
       <c r="BE20" s="1">
-        <v>15.387415</v>
+        <v>15.387415000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1537.620000</v>
+        <v>1537.62</v>
       </c>
       <c r="BG20" s="1">
-        <v>-610.298000</v>
+        <v>-610.298</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>55405.923627</v>
+        <v>55405.923626999996</v>
       </c>
       <c r="BJ20" s="1">
-        <v>15.390534</v>
+        <v>15.390534000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1693.960000</v>
+        <v>1693.96</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1049.170000</v>
+        <v>-1049.17</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>55416.508780</v>
+        <v>55416.508779999996</v>
       </c>
       <c r="BO20" s="1">
         <v>15.393475</v>
       </c>
       <c r="BP20" s="1">
-        <v>1990.490000</v>
+        <v>1990.49</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1807.030000</v>
+        <v>-1807.03</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>55427.546719</v>
+        <v>55427.546718999998</v>
       </c>
       <c r="BT20" s="1">
-        <v>15.396541</v>
+        <v>15.396540999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>2382.860000</v>
+        <v>2382.86</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2678.430000</v>
+        <v>-2678.43</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>55438.841630</v>
+        <v>55438.841630000003</v>
       </c>
       <c r="BY20" s="1">
         <v>15.399678</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2865.530000</v>
+        <v>2865.53</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3625.720000</v>
+        <v>-3625.72</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>55451.482160</v>
+        <v>55451.48216</v>
       </c>
       <c r="CD20" s="1">
-        <v>15.403189</v>
+        <v>15.403188999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>4289.860000</v>
+        <v>4289.8599999999997</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5897.290000</v>
+        <v>-5897.29</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>55279.247410</v>
+        <v>55279.247410000004</v>
       </c>
       <c r="B21" s="1">
         <v>15.355347</v>
       </c>
       <c r="C21" s="1">
-        <v>1247.940000</v>
+        <v>1247.94</v>
       </c>
       <c r="D21" s="1">
-        <v>-303.643000</v>
+        <v>-303.64299999999997</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>55289.305254</v>
+        <v>55289.305253999999</v>
       </c>
       <c r="G21" s="1">
-        <v>15.358140</v>
+        <v>15.358140000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1271.970000</v>
+        <v>1271.97</v>
       </c>
       <c r="I21" s="1">
-        <v>-262.021000</v>
+        <v>-262.02100000000002</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>55299.783767</v>
+        <v>55299.783767000001</v>
       </c>
       <c r="L21" s="1">
         <v>15.361051</v>
       </c>
       <c r="M21" s="1">
-        <v>1306.670000</v>
+        <v>1306.67</v>
       </c>
       <c r="N21" s="1">
-        <v>-201.245000</v>
+        <v>-201.245</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>55310.334665</v>
+        <v>55310.334665000002</v>
       </c>
       <c r="Q21" s="1">
         <v>15.363982</v>
       </c>
       <c r="R21" s="1">
-        <v>1318.490000</v>
+        <v>1318.49</v>
       </c>
       <c r="S21" s="1">
-        <v>-183.626000</v>
+        <v>-183.626</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>55320.818261</v>
@@ -5424,28 +5840,28 @@
         <v>15.366894</v>
       </c>
       <c r="W21" s="1">
-        <v>1331.630000</v>
+        <v>1331.63</v>
       </c>
       <c r="X21" s="1">
-        <v>-170.685000</v>
+        <v>-170.685</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>55331.703773</v>
+        <v>55331.703773000001</v>
       </c>
       <c r="AA21" s="1">
         <v>15.369918</v>
       </c>
       <c r="AB21" s="1">
-        <v>1348.820000</v>
+        <v>1348.82</v>
       </c>
       <c r="AC21" s="1">
-        <v>-169.036000</v>
+        <v>-169.036</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>55342.148062</v>
@@ -5454,133 +5870,133 @@
         <v>15.372819</v>
       </c>
       <c r="AG21" s="1">
-        <v>1362.060000</v>
+        <v>1362.06</v>
       </c>
       <c r="AH21" s="1">
-        <v>-179.179000</v>
+        <v>-179.179</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>55352.368593</v>
+        <v>55352.368592999999</v>
       </c>
       <c r="AK21" s="1">
         <v>15.375658</v>
       </c>
       <c r="AL21" s="1">
-        <v>1383.200000</v>
+        <v>1383.2</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.348000</v>
+        <v>-209.34800000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>55362.946808</v>
+        <v>55362.946808000001</v>
       </c>
       <c r="AP21" s="1">
         <v>15.378596</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1405.430000</v>
+        <v>1405.43</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.169000</v>
+        <v>-253.16900000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>55373.689125</v>
+        <v>55373.689124999997</v>
       </c>
       <c r="AU21" s="1">
-        <v>15.381580</v>
+        <v>15.38158</v>
       </c>
       <c r="AV21" s="1">
-        <v>1430.650000</v>
+        <v>1430.65</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.897000</v>
+        <v>-312.89699999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>55384.637815</v>
+        <v>55384.637815000002</v>
       </c>
       <c r="AZ21" s="1">
         <v>15.384622</v>
       </c>
       <c r="BA21" s="1">
-        <v>1450.470000</v>
+        <v>1450.47</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.604000</v>
+        <v>-364.60399999999998</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>55395.284938</v>
+        <v>55395.284937999997</v>
       </c>
       <c r="BE21" s="1">
-        <v>15.387579</v>
+        <v>15.387579000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1537.560000</v>
+        <v>1537.56</v>
       </c>
       <c r="BG21" s="1">
-        <v>-610.311000</v>
+        <v>-610.31100000000004</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>55406.352666</v>
+        <v>55406.352665999999</v>
       </c>
       <c r="BJ21" s="1">
         <v>15.390654</v>
       </c>
       <c r="BK21" s="1">
-        <v>1693.950000</v>
+        <v>1693.95</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1049.210000</v>
+        <v>-1049.21</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>55416.901580</v>
+        <v>55416.901579999998</v>
       </c>
       <c r="BO21" s="1">
-        <v>15.393584</v>
+        <v>15.393584000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1990.570000</v>
+        <v>1990.57</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1807.130000</v>
+        <v>-1807.13</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>55427.985182</v>
+        <v>55427.985181999997</v>
       </c>
       <c r="BT21" s="1">
         <v>15.396663</v>
       </c>
       <c r="BU21" s="1">
-        <v>2382.460000</v>
+        <v>2382.46</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2678.820000</v>
+        <v>-2678.82</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>55439.264206</v>
@@ -5589,362 +6005,362 @@
         <v>15.399796</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2865.460000</v>
+        <v>2865.46</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3625.990000</v>
+        <v>-3625.99</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>55452.022798</v>
+        <v>55452.022797999998</v>
       </c>
       <c r="CD21" s="1">
-        <v>15.403340</v>
+        <v>15.40334</v>
       </c>
       <c r="CE21" s="1">
-        <v>4277.140000</v>
+        <v>4277.1400000000003</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5880.860000</v>
+        <v>-5880.86</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>55279.591637</v>
+        <v>55279.591636999998</v>
       </c>
       <c r="B22" s="1">
         <v>15.355442</v>
       </c>
       <c r="C22" s="1">
-        <v>1247.810000</v>
+        <v>1247.81</v>
       </c>
       <c r="D22" s="1">
-        <v>-303.492000</v>
+        <v>-303.49200000000002</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>55289.648015</v>
+        <v>55289.648014999999</v>
       </c>
       <c r="G22" s="1">
         <v>15.358236</v>
       </c>
       <c r="H22" s="1">
-        <v>1271.580000</v>
+        <v>1271.58</v>
       </c>
       <c r="I22" s="1">
-        <v>-262.258000</v>
+        <v>-262.25799999999998</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>55300.126994</v>
+        <v>55300.126993999998</v>
       </c>
       <c r="L22" s="1">
         <v>15.361146</v>
       </c>
       <c r="M22" s="1">
-        <v>1306.890000</v>
+        <v>1306.8900000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-201.134000</v>
+        <v>-201.13399999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>55311.033992</v>
+        <v>55311.033991999997</v>
       </c>
       <c r="Q22" s="1">
         <v>15.364176</v>
       </c>
       <c r="R22" s="1">
-        <v>1318.570000</v>
+        <v>1318.57</v>
       </c>
       <c r="S22" s="1">
-        <v>-183.705000</v>
+        <v>-183.70500000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>55321.507514</v>
+        <v>55321.507513999997</v>
       </c>
       <c r="V22" s="1">
-        <v>15.367085</v>
+        <v>15.367084999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1331.380000</v>
+        <v>1331.38</v>
       </c>
       <c r="X22" s="1">
-        <v>-170.549000</v>
+        <v>-170.54900000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>55332.048033</v>
+        <v>55332.048032999999</v>
       </c>
       <c r="AA22" s="1">
         <v>15.370013</v>
       </c>
       <c r="AB22" s="1">
-        <v>1348.910000</v>
+        <v>1348.91</v>
       </c>
       <c r="AC22" s="1">
-        <v>-169.047000</v>
+        <v>-169.047</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>55342.491300</v>
+        <v>55342.491300000002</v>
       </c>
       <c r="AF22" s="1">
         <v>15.372914</v>
       </c>
       <c r="AG22" s="1">
-        <v>1362.040000</v>
+        <v>1362.04</v>
       </c>
       <c r="AH22" s="1">
-        <v>-179.130000</v>
+        <v>-179.13</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>55352.719799</v>
+        <v>55352.719798999999</v>
       </c>
       <c r="AK22" s="1">
         <v>15.375755</v>
       </c>
       <c r="AL22" s="1">
-        <v>1383.180000</v>
+        <v>1383.18</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.298000</v>
+        <v>-209.298</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>55363.617363</v>
+        <v>55363.617362999998</v>
       </c>
       <c r="AP22" s="1">
         <v>15.378783</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1405.430000</v>
+        <v>1405.43</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.166000</v>
+        <v>-253.166</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>55374.355749</v>
+        <v>55374.355749000002</v>
       </c>
       <c r="AU22" s="1">
         <v>15.381765</v>
       </c>
       <c r="AV22" s="1">
-        <v>1430.650000</v>
+        <v>1430.65</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.853000</v>
+        <v>-312.85300000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>55385.044070</v>
+        <v>55385.044070000004</v>
       </c>
       <c r="AZ22" s="1">
         <v>15.384734</v>
       </c>
       <c r="BA22" s="1">
-        <v>1450.460000</v>
+        <v>1450.46</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.599000</v>
+        <v>-364.59899999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>55395.396536</v>
       </c>
       <c r="BE22" s="1">
-        <v>15.387610</v>
+        <v>15.38761</v>
       </c>
       <c r="BF22" s="1">
-        <v>1537.590000</v>
+        <v>1537.59</v>
       </c>
       <c r="BG22" s="1">
-        <v>-610.289000</v>
+        <v>-610.28899999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>55406.730617</v>
+        <v>55406.730617000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>15.390759</v>
+        <v>15.390758999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1693.870000</v>
+        <v>1693.87</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1049.070000</v>
+        <v>-1049.07</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>55417.325661</v>
+        <v>55417.325661000003</v>
       </c>
       <c r="BO22" s="1">
-        <v>15.393702</v>
+        <v>15.393701999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1990.500000</v>
+        <v>1990.5</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1806.980000</v>
+        <v>-1806.98</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>55428.412733</v>
+        <v>55428.412732999997</v>
       </c>
       <c r="BT22" s="1">
-        <v>15.396781</v>
+        <v>15.396781000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>2381.900000</v>
+        <v>2381.9</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2679.250000</v>
+        <v>-2679.25</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>55439.719069</v>
+        <v>55439.719068999999</v>
       </c>
       <c r="BY22" s="1">
         <v>15.399922</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2865.450000</v>
+        <v>2865.45</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3625.330000</v>
+        <v>-3625.33</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>55452.562941</v>
+        <v>55452.562940999996</v>
       </c>
       <c r="CD22" s="1">
-        <v>15.403490</v>
+        <v>15.40349</v>
       </c>
       <c r="CE22" s="1">
-        <v>4276.240000</v>
+        <v>4276.24</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5897.620000</v>
+        <v>-5897.62</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>55279.930865</v>
+        <v>55279.930865000002</v>
       </c>
       <c r="B23" s="1">
-        <v>15.355536</v>
+        <v>15.355536000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1247.880000</v>
+        <v>1247.8800000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-303.576000</v>
+        <v>-303.57600000000002</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>55290.340403</v>
+        <v>55290.340403000002</v>
       </c>
       <c r="G23" s="1">
         <v>15.358428</v>
       </c>
       <c r="H23" s="1">
-        <v>1272.580000</v>
+        <v>1272.58</v>
       </c>
       <c r="I23" s="1">
-        <v>-262.523000</v>
+        <v>-262.52300000000002</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>55300.818885</v>
+        <v>55300.818885000001</v>
       </c>
       <c r="L23" s="1">
-        <v>15.361339</v>
+        <v>15.361338999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1306.910000</v>
+        <v>1306.9100000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-201.041000</v>
+        <v>-201.041</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>55311.378711</v>
+        <v>55311.378710999998</v>
       </c>
       <c r="Q23" s="1">
         <v>15.364272</v>
       </c>
       <c r="R23" s="1">
-        <v>1318.510000</v>
+        <v>1318.51</v>
       </c>
       <c r="S23" s="1">
-        <v>-183.724000</v>
+        <v>-183.72399999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>55321.850759</v>
+        <v>55321.850759000001</v>
       </c>
       <c r="V23" s="1">
         <v>15.367181</v>
       </c>
       <c r="W23" s="1">
-        <v>1331.600000</v>
+        <v>1331.6</v>
       </c>
       <c r="X23" s="1">
-        <v>-170.643000</v>
+        <v>-170.643</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>55332.398705</v>
@@ -5953,330 +6369,330 @@
         <v>15.370111</v>
       </c>
       <c r="AB23" s="1">
-        <v>1348.960000</v>
+        <v>1348.96</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.917000</v>
+        <v>-168.917</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>55343.158877</v>
+        <v>55343.158877000002</v>
       </c>
       <c r="AF23" s="1">
-        <v>15.373100</v>
+        <v>15.373100000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1362.100000</v>
+        <v>1362.1</v>
       </c>
       <c r="AH23" s="1">
-        <v>-179.149000</v>
+        <v>-179.149</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>55353.376465</v>
+        <v>55353.376465000001</v>
       </c>
       <c r="AK23" s="1">
         <v>15.375938</v>
       </c>
       <c r="AL23" s="1">
-        <v>1383.180000</v>
+        <v>1383.18</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.328000</v>
+        <v>-209.328</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>55364.031523</v>
+        <v>55364.031522999998</v>
       </c>
       <c r="AP23" s="1">
         <v>15.378898</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1405.420000</v>
+        <v>1405.42</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.195000</v>
+        <v>-253.19499999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>55374.815575</v>
+        <v>55374.815575000001</v>
       </c>
       <c r="AU23" s="1">
         <v>15.381893</v>
       </c>
       <c r="AV23" s="1">
-        <v>1430.660000</v>
+        <v>1430.66</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.849000</v>
+        <v>-312.84899999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>55385.430421</v>
+        <v>55385.430420999997</v>
       </c>
       <c r="AZ23" s="1">
-        <v>15.384842</v>
+        <v>15.384842000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1450.490000</v>
+        <v>1450.49</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.594000</v>
+        <v>-364.59399999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>55395.755640</v>
+        <v>55395.755640000003</v>
       </c>
       <c r="BE23" s="1">
-        <v>15.387710</v>
+        <v>15.38771</v>
       </c>
       <c r="BF23" s="1">
-        <v>1537.580000</v>
+        <v>1537.58</v>
       </c>
       <c r="BG23" s="1">
-        <v>-610.338000</v>
+        <v>-610.33799999999997</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>55407.103148</v>
+        <v>55407.103148000002</v>
       </c>
       <c r="BJ23" s="1">
         <v>15.390862</v>
       </c>
       <c r="BK23" s="1">
-        <v>1693.840000</v>
+        <v>1693.84</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1049.120000</v>
+        <v>-1049.1199999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>55417.756715</v>
+        <v>55417.756715000003</v>
       </c>
       <c r="BO23" s="1">
-        <v>15.393821</v>
+        <v>15.393821000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1990.510000</v>
+        <v>1990.51</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1806.850000</v>
+        <v>-1806.85</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>55428.835861</v>
       </c>
       <c r="BT23" s="1">
-        <v>15.396899</v>
+        <v>15.396898999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>2382.070000</v>
+        <v>2382.0700000000002</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2679.680000</v>
+        <v>-2679.68</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>55440.137661</v>
+        <v>55440.137661000001</v>
       </c>
       <c r="BY23" s="1">
         <v>15.400038</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2864.590000</v>
+        <v>2864.59</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3625.320000</v>
+        <v>-3625.32</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>55453.106678</v>
+        <v>55453.106677999996</v>
       </c>
       <c r="CD23" s="1">
         <v>15.403641</v>
       </c>
       <c r="CE23" s="1">
-        <v>4291.950000</v>
+        <v>4291.95</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5887.490000</v>
+        <v>-5887.49</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>55280.613361</v>
+        <v>55280.613361000003</v>
       </c>
       <c r="B24" s="1">
-        <v>15.355726</v>
+        <v>15.355726000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1247.850000</v>
+        <v>1247.8499999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-303.688000</v>
+        <v>-303.68799999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>55290.680690</v>
+        <v>55290.680690000001</v>
       </c>
       <c r="G24" s="1">
-        <v>15.358522</v>
+        <v>15.358522000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1272.300000</v>
+        <v>1272.3</v>
       </c>
       <c r="I24" s="1">
-        <v>-262.828000</v>
+        <v>-262.82799999999997</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>55301.164598</v>
+        <v>55301.164598000003</v>
       </c>
       <c r="L24" s="1">
         <v>15.361435</v>
       </c>
       <c r="M24" s="1">
-        <v>1306.300000</v>
+        <v>1306.3</v>
       </c>
       <c r="N24" s="1">
-        <v>-201.311000</v>
+        <v>-201.31100000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>55311.728429</v>
+        <v>55311.728429000003</v>
       </c>
       <c r="Q24" s="1">
         <v>15.364369</v>
       </c>
       <c r="R24" s="1">
-        <v>1318.440000</v>
+        <v>1318.44</v>
       </c>
       <c r="S24" s="1">
-        <v>-183.719000</v>
+        <v>-183.71899999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>55322.194473</v>
+        <v>55322.194473000003</v>
       </c>
       <c r="V24" s="1">
         <v>15.367276</v>
       </c>
       <c r="W24" s="1">
-        <v>1331.600000</v>
+        <v>1331.6</v>
       </c>
       <c r="X24" s="1">
-        <v>-170.514000</v>
+        <v>-170.51400000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>55333.048923</v>
+        <v>55333.048923000002</v>
       </c>
       <c r="AA24" s="1">
         <v>15.370291</v>
       </c>
       <c r="AB24" s="1">
-        <v>1348.900000</v>
+        <v>1348.9</v>
       </c>
       <c r="AC24" s="1">
-        <v>-169.050000</v>
+        <v>-169.05</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>55343.523437</v>
+        <v>55343.523437000003</v>
       </c>
       <c r="AF24" s="1">
         <v>15.373201</v>
       </c>
       <c r="AG24" s="1">
-        <v>1362.060000</v>
+        <v>1362.06</v>
       </c>
       <c r="AH24" s="1">
-        <v>-179.129000</v>
+        <v>-179.12899999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>55353.767311</v>
+        <v>55353.767311000003</v>
       </c>
       <c r="AK24" s="1">
-        <v>15.376046</v>
+        <v>15.376046000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1383.210000</v>
+        <v>1383.21</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.368000</v>
+        <v>-209.36799999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>55364.414596</v>
+        <v>55364.414596000002</v>
       </c>
       <c r="AP24" s="1">
         <v>15.379004</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1405.390000</v>
+        <v>1405.39</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.183000</v>
+        <v>-253.18299999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>55375.179605</v>
+        <v>55375.179604999998</v>
       </c>
       <c r="AU24" s="1">
-        <v>15.381994</v>
+        <v>15.381994000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1430.620000</v>
+        <v>1430.62</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.939000</v>
+        <v>-312.93900000000002</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>55385.788535</v>
@@ -6285,225 +6701,225 @@
         <v>15.384941</v>
       </c>
       <c r="BA24" s="1">
-        <v>1450.490000</v>
+        <v>1450.49</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.595000</v>
+        <v>-364.59500000000003</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>55396.162856</v>
+        <v>55396.162856000003</v>
       </c>
       <c r="BE24" s="1">
-        <v>15.387823</v>
+        <v>15.387822999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1537.580000</v>
+        <v>1537.58</v>
       </c>
       <c r="BG24" s="1">
-        <v>-610.334000</v>
+        <v>-610.33399999999995</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>55407.528682</v>
+        <v>55407.528681999996</v>
       </c>
       <c r="BJ24" s="1">
-        <v>15.390980</v>
+        <v>15.390980000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1693.800000</v>
+        <v>1693.8</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1049.070000</v>
+        <v>-1049.07</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>55418.143068</v>
+        <v>55418.143067999998</v>
       </c>
       <c r="BO24" s="1">
         <v>15.393929</v>
       </c>
       <c r="BP24" s="1">
-        <v>1990.460000</v>
+        <v>1990.46</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1806.940000</v>
+        <v>-1806.94</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>55429.254475</v>
+        <v>55429.254475000002</v>
       </c>
       <c r="BT24" s="1">
         <v>15.397015</v>
       </c>
       <c r="BU24" s="1">
-        <v>2381.960000</v>
+        <v>2381.96</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2680.140000</v>
+        <v>-2680.14</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>55440.585549</v>
+        <v>55440.585549000003</v>
       </c>
       <c r="BY24" s="1">
-        <v>15.400163</v>
+        <v>15.400162999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2864.790000</v>
+        <v>2864.79</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3625.610000</v>
+        <v>-3625.61</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>55453.643725</v>
+        <v>55453.643725000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>15.403790</v>
+        <v>15.403790000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>4268.210000</v>
+        <v>4268.21</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5890.670000</v>
+        <v>-5890.67</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>55280.957089</v>
+        <v>55280.957089000003</v>
       </c>
       <c r="B25" s="1">
-        <v>15.355821</v>
+        <v>15.355821000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1247.230000</v>
+        <v>1247.23</v>
       </c>
       <c r="D25" s="1">
-        <v>-303.802000</v>
+        <v>-303.80200000000002</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>55291.027890</v>
+        <v>55291.027889999998</v>
       </c>
       <c r="G25" s="1">
-        <v>15.358619</v>
+        <v>15.358618999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1271.370000</v>
+        <v>1271.3699999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-261.399000</v>
+        <v>-261.399</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>55301.509316</v>
+        <v>55301.509316000003</v>
       </c>
       <c r="L25" s="1">
-        <v>15.361530</v>
+        <v>15.36153</v>
       </c>
       <c r="M25" s="1">
-        <v>1306.950000</v>
+        <v>1306.95</v>
       </c>
       <c r="N25" s="1">
-        <v>-201.283000</v>
+        <v>-201.28299999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>55312.391542</v>
+        <v>55312.391541999998</v>
       </c>
       <c r="Q25" s="1">
-        <v>15.364553</v>
+        <v>15.364553000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1318.410000</v>
+        <v>1318.41</v>
       </c>
       <c r="S25" s="1">
-        <v>-183.648000</v>
+        <v>-183.648</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>55322.950874</v>
+        <v>55322.950874000002</v>
       </c>
       <c r="V25" s="1">
         <v>15.367486</v>
       </c>
       <c r="W25" s="1">
-        <v>1331.420000</v>
+        <v>1331.42</v>
       </c>
       <c r="X25" s="1">
-        <v>-170.686000</v>
+        <v>-170.68600000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>55333.444731</v>
+        <v>55333.444731000003</v>
       </c>
       <c r="AA25" s="1">
-        <v>15.370401</v>
+        <v>15.370400999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1348.940000</v>
+        <v>1348.94</v>
       </c>
       <c r="AC25" s="1">
-        <v>-169.175000</v>
+        <v>-169.17500000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>55343.872124</v>
+        <v>55343.872124000001</v>
       </c>
       <c r="AF25" s="1">
         <v>15.373298</v>
       </c>
       <c r="AG25" s="1">
-        <v>1362.070000</v>
+        <v>1362.07</v>
       </c>
       <c r="AH25" s="1">
-        <v>-179.160000</v>
+        <v>-179.16</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>55354.117487</v>
+        <v>55354.117487000003</v>
       </c>
       <c r="AK25" s="1">
         <v>15.376144</v>
       </c>
       <c r="AL25" s="1">
-        <v>1383.170000</v>
+        <v>1383.17</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.307000</v>
+        <v>-209.30699999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>55364.773041</v>
@@ -6512,360 +6928,360 @@
         <v>15.379104</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1405.400000</v>
+        <v>1405.4</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.169000</v>
+        <v>-253.16900000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>55375.546644</v>
+        <v>55375.546644000002</v>
       </c>
       <c r="AU25" s="1">
-        <v>15.382096</v>
+        <v>15.382096000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1430.600000</v>
+        <v>1430.6</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.856000</v>
+        <v>-312.85599999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>55386.207653</v>
+        <v>55386.207652999998</v>
       </c>
       <c r="AZ25" s="1">
-        <v>15.385058</v>
+        <v>15.385058000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1450.430000</v>
+        <v>1450.43</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.613000</v>
+        <v>-364.613</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>55396.476824</v>
+        <v>55396.476823999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>15.387910</v>
+        <v>15.38791</v>
       </c>
       <c r="BF25" s="1">
-        <v>1537.590000</v>
+        <v>1537.59</v>
       </c>
       <c r="BG25" s="1">
-        <v>-610.322000</v>
+        <v>-610.322</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>55407.877865</v>
+        <v>55407.877865000002</v>
       </c>
       <c r="BJ25" s="1">
-        <v>15.391077</v>
+        <v>15.391076999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1693.940000</v>
+        <v>1693.94</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1049.220000</v>
+        <v>-1049.22</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>55418.538378</v>
+        <v>55418.538377999997</v>
       </c>
       <c r="BO25" s="1">
         <v>15.394038</v>
       </c>
       <c r="BP25" s="1">
-        <v>1990.490000</v>
+        <v>1990.49</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1806.990000</v>
+        <v>-1806.99</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>55429.684971</v>
+        <v>55429.684971000002</v>
       </c>
       <c r="BT25" s="1">
         <v>15.397135</v>
       </c>
       <c r="BU25" s="1">
-        <v>2381.500000</v>
+        <v>2381.5</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2680.300000</v>
+        <v>-2680.3</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>55441.008141</v>
+        <v>55441.008140999998</v>
       </c>
       <c r="BY25" s="1">
-        <v>15.400280</v>
+        <v>15.40028</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2865.330000</v>
+        <v>2865.33</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3625.040000</v>
+        <v>-3625.04</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>55454.183867</v>
       </c>
       <c r="CD25" s="1">
-        <v>15.403940</v>
+        <v>15.40394</v>
       </c>
       <c r="CE25" s="1">
-        <v>4287.120000</v>
+        <v>4287.12</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5898.460000</v>
+        <v>-5898.46</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>55281.297343</v>
+        <v>55281.297342999998</v>
       </c>
       <c r="B26" s="1">
-        <v>15.355916</v>
+        <v>15.355916000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1247.730000</v>
+        <v>1247.73</v>
       </c>
       <c r="D26" s="1">
-        <v>-303.490000</v>
+        <v>-303.49</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>55291.688561</v>
+        <v>55291.688561000003</v>
       </c>
       <c r="G26" s="1">
-        <v>15.358802</v>
+        <v>15.358802000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1272.080000</v>
+        <v>1272.08</v>
       </c>
       <c r="I26" s="1">
-        <v>-261.445000</v>
+        <v>-261.44499999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>55302.166021</v>
+        <v>55302.166020999997</v>
       </c>
       <c r="L26" s="1">
         <v>15.361713</v>
       </c>
       <c r="M26" s="1">
-        <v>1306.490000</v>
+        <v>1306.49</v>
       </c>
       <c r="N26" s="1">
-        <v>-201.415000</v>
+        <v>-201.41499999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>55312.777430</v>
+        <v>55312.777430000002</v>
       </c>
       <c r="Q26" s="1">
-        <v>15.364660</v>
+        <v>15.364660000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1318.430000</v>
+        <v>1318.43</v>
       </c>
       <c r="S26" s="1">
-        <v>-183.649000</v>
+        <v>-183.649</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>55323.226153</v>
+        <v>55323.226153000003</v>
       </c>
       <c r="V26" s="1">
-        <v>15.367563</v>
+        <v>15.367563000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1331.500000</v>
+        <v>1331.5</v>
       </c>
       <c r="X26" s="1">
-        <v>-170.527000</v>
+        <v>-170.52699999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>55333.794410</v>
+        <v>55333.794410000002</v>
       </c>
       <c r="AA26" s="1">
         <v>15.370498</v>
       </c>
       <c r="AB26" s="1">
-        <v>1348.850000</v>
+        <v>1348.85</v>
       </c>
       <c r="AC26" s="1">
-        <v>-169.027000</v>
+        <v>-169.02699999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>55344.216371</v>
+        <v>55344.216371000002</v>
       </c>
       <c r="AF26" s="1">
         <v>15.373393</v>
       </c>
       <c r="AG26" s="1">
-        <v>1362.020000</v>
+        <v>1362.02</v>
       </c>
       <c r="AH26" s="1">
-        <v>-179.130000</v>
+        <v>-179.13</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>55354.464695</v>
+        <v>55354.464695000002</v>
       </c>
       <c r="AK26" s="1">
-        <v>15.376240</v>
+        <v>15.376239999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1383.220000</v>
+        <v>1383.22</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.321000</v>
+        <v>-209.321</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>55365.204562</v>
+        <v>55365.204561999999</v>
       </c>
       <c r="AP26" s="1">
         <v>15.379223</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1405.420000</v>
+        <v>1405.42</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.156000</v>
+        <v>-253.15600000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>55375.976675</v>
+        <v>55375.976674999998</v>
       </c>
       <c r="AU26" s="1">
         <v>15.382216</v>
       </c>
       <c r="AV26" s="1">
-        <v>1430.600000</v>
+        <v>1430.6</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.854000</v>
+        <v>-312.85399999999998</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>55386.506282</v>
+        <v>55386.506282000002</v>
       </c>
       <c r="AZ26" s="1">
-        <v>15.385141</v>
+        <v>15.385141000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1450.430000</v>
+        <v>1450.43</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.605000</v>
+        <v>-364.60500000000002</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>55396.840888</v>
+        <v>55396.840887999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>15.388011</v>
+        <v>15.388011000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1537.560000</v>
+        <v>1537.56</v>
       </c>
       <c r="BG26" s="1">
-        <v>-610.270000</v>
+        <v>-610.27</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>55408.252840</v>
+        <v>55408.252840000001</v>
       </c>
       <c r="BJ26" s="1">
         <v>15.391181</v>
       </c>
       <c r="BK26" s="1">
-        <v>1694.010000</v>
+        <v>1694.01</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1049.060000</v>
+        <v>-1049.06</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>55418.962458</v>
+        <v>55418.962458000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>15.394156</v>
+        <v>15.394156000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1990.500000</v>
+        <v>1990.5</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1807.010000</v>
+        <v>-1807.01</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>55430.126907</v>
+        <v>55430.126906999998</v>
       </c>
       <c r="BT26" s="1">
         <v>15.397257</v>
       </c>
       <c r="BU26" s="1">
-        <v>2380.680000</v>
+        <v>2380.6799999999998</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2680.630000</v>
+        <v>-2680.63</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>55441.430731</v>
@@ -6874,30 +7290,31 @@
         <v>15.400397</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2865.390000</v>
+        <v>2865.39</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3625.240000</v>
+        <v>-3625.24</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>55454.723025</v>
+        <v>55454.723024999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>15.404090</v>
+        <v>15.40409</v>
       </c>
       <c r="CE26" s="1">
-        <v>4279.600000</v>
+        <v>4279.6000000000004</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5879.910000</v>
+        <v>-5879.91</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>